--- a/data/hotels_by_city/Houston/Houston_shard_126.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_126.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="407">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56701-d1478088-Reviews-Comfort_Suites-Spring_Texas.html</t>
   </si>
   <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Comfort-Suites.h2784440.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1125 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r584913127-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>56701</t>
+  </si>
+  <si>
+    <t>1478088</t>
+  </si>
+  <si>
+    <t>584913127</t>
+  </si>
+  <si>
+    <t>06/03/2018</t>
+  </si>
+  <si>
+    <t>Amazing costume service</t>
+  </si>
+  <si>
+    <t>Been staying at the comfort inn for about 2 months it is basically it has been my home very good in costumer  service , always make sure rooms are clean and Charlie girl is the best , best cookies, best attitude,  over all I am very impressed  with the service I get thank you</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r583297355-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>583297355</t>
+  </si>
+  <si>
+    <t>05/28/2018</t>
+  </si>
+  <si>
+    <t>Nice hotel if you don't need internet access</t>
+  </si>
+  <si>
+    <t>This is a pretty nice hotel overall with one MAJOR drawback-the Wi-Fi service is abysmal to the point of being unusable for even simple tasks like checking email. If you demand internet access, stay at another hotel or be prepared to either use your cell phone service or to go elsewhere to check your email, browse, etc. If you're ok with super slow internet service than this is a very good hotel. The hallways are showing some age and wear, but the rooms are fine. My room was nicely apportioned, clean, and had a refrigerator &amp; microwave. The bed was comfortable. The cable service has tons of channels. The pool is small, but decent for a dip at the end of a day to cool off. Please note that the hottub has been removed and the hole filled with cement, so it is no longer available. The breakfast was standard Comfort Suites fare, which is good, with cereal, waffles, yogurt, eggs, fruit (thanks for having pears!) meat, etc. Parking and access to I-45 were no problem, but the hotel was not very busy during my stay. You do hear some road noise in the rooms facing the south, but it's not bad and did not interfere with my sleeping. Staff was friendly and accommodating. Overall, I liked this hotel, except for the Wi-Fi service. If they upgraded that, this would be an very good hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a pretty nice hotel overall with one MAJOR drawback-the Wi-Fi service is abysmal to the point of being unusable for even simple tasks like checking email. If you demand internet access, stay at another hotel or be prepared to either use your cell phone service or to go elsewhere to check your email, browse, etc. If you're ok with super slow internet service than this is a very good hotel. The hallways are showing some age and wear, but the rooms are fine. My room was nicely apportioned, clean, and had a refrigerator &amp; microwave. The bed was comfortable. The cable service has tons of channels. The pool is small, but decent for a dip at the end of a day to cool off. Please note that the hottub has been removed and the hole filled with cement, so it is no longer available. The breakfast was standard Comfort Suites fare, which is good, with cereal, waffles, yogurt, eggs, fruit (thanks for having pears!) meat, etc. Parking and access to I-45 were no problem, but the hotel was not very busy during my stay. You do hear some road noise in the rooms facing the south, but it's not bad and did not interfere with my sleeping. Staff was friendly and accommodating. Overall, I liked this hotel, except for the Wi-Fi service. If they upgraded that, this would be an very good hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r555741672-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>555741672</t>
+  </si>
+  <si>
+    <t>01/22/2018</t>
+  </si>
+  <si>
+    <t>Good location for me.</t>
+  </si>
+  <si>
+    <t>This was a great location for me, just off of I-45 N,  and a whole group of people attending a surprise party.  The staff was friendly and accommodating.  The breakfast was very good, but I wish the breakfast area was a little larger.  Maybe it's because we were there on a weekend.  I would recommend this hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r523593945-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>523593945</t>
+  </si>
+  <si>
+    <t>09/11/2017</t>
+  </si>
+  <si>
+    <t>Hurricane refugee</t>
+  </si>
+  <si>
+    <t>Ended up staying at the hotel as a storm victim. This was one of the few FEMA registered hotels in the area. I ended up staying for a month. The building was beautiful, the room was standard but still it was huge. Even after the struggles that everyone felt after the storm the hotel ran smoothly and everyone was very accommodating. The employees learned their guests' names and remembered details of various conversations we had. I felt at home.</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r520617503-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>520617503</t>
+  </si>
+  <si>
+    <t>09/02/2017</t>
+  </si>
+  <si>
+    <t>Went out of their way to accommodate me!</t>
+  </si>
+  <si>
+    <t>Worked with my employer to get me a reservation when hotel was full. Fantastic breakfast as well. Maids thoroughly clean room to make it spotless. Towels were not tattered and smelled fresh and not like a chemical cleaner.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r511804730-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>511804730</t>
+  </si>
+  <si>
+    <t>08/12/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great Hotel for the price! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This hotel is very nice.  The front desk staff Becky was very friendly and helpful.  The beds were clean and comfortable the room was nice and clean.  The breakfast was good.  I would definitely stay here again.  </t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r462045391-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>462045391</t>
+  </si>
+  <si>
+    <t>02/22/2017</t>
+  </si>
+  <si>
+    <t>Great hotel!</t>
+  </si>
+  <si>
+    <t>Stayed here for 12 nights. Very clean, well kept hotel. Convenient location. Large rooms! Free breakfast. The washer and dryer worked well. Free wifi. Helpful staff. Nice bathroom. I would definitely stay here again.</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r456163764-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>456163764</t>
+  </si>
+  <si>
+    <t>01/31/2017</t>
+  </si>
+  <si>
+    <t>So incredibly pleased!!</t>
+  </si>
+  <si>
+    <t>We went to Houston for a training class. I chose this hotel because it is close to our favorite restaurant, Guadalajara Hacienda (The Woodlands). The training was an hour away, but we had our priorities. :-) 
+We pulled in to a very nice looking hotel. It has quick access to the highway, Wal-Mart and plenty of restaurants. 
+When we went in, we were immediately greeted by a very friendly lady. She checked us in and gave us the low-down on breakfast. We went into our room and my husband and I both said...WOW! It was a beautiful room! Very clean and decorated beautifully! My honey went and plopped down on the bed and was very pleased! The room had a small coffee pot, microwave and a small fridge. The fridge didn't work very well, but that wasn't important to us. We brought a small DVD player so we could veg out and watch Netflix. It was a wonderful evening in! Our room was on the 3rd floor, right next to the ice machine room. We were a little concerned, but we had no noise issues at all. 
+The next morning, we went for breakfast. There was, of course, waffles, but my honey cannot have any gluten. We were pleased that they had egg patties and sausage patties, plus plenty of fruit and very good coffee. 
+When we went to check out, the manager was actually working. I told him that...We went to Houston for a training class. I chose this hotel because it is close to our favorite restaurant, Guadalajara Hacienda (The Woodlands). The training was an hour away, but we had our priorities. :-) We pulled in to a very nice looking hotel. It has quick access to the highway, Wal-Mart and plenty of restaurants. When we went in, we were immediately greeted by a very friendly lady. She checked us in and gave us the low-down on breakfast. We went into our room and my husband and I both said...WOW! It was a beautiful room! Very clean and decorated beautifully! My honey went and plopped down on the bed and was very pleased! The room had a small coffee pot, microwave and a small fridge. The fridge didn't work very well, but that wasn't important to us. We brought a small DVD player so we could veg out and watch Netflix. It was a wonderful evening in! Our room was on the 3rd floor, right next to the ice machine room. We were a little concerned, but we had no noise issues at all. The next morning, we went for breakfast. There was, of course, waffles, but my honey cannot have any gluten. We were pleased that they had egg patties and sausage patties, plus plenty of fruit and very good coffee. When we went to check out, the manager was actually working. I told him that we had been very pleased with our stay. We told him what room we were in and he said, oh you had a training class an hour away! We were very impressed. Such a small detail, that didn't seem important to remember, but the first gal had made a note. Great customer service!All in all, we will definitely stay here again, the next time we have a training class! MoreShow less</t>
+  </si>
+  <si>
+    <t>We went to Houston for a training class. I chose this hotel because it is close to our favorite restaurant, Guadalajara Hacienda (The Woodlands). The training was an hour away, but we had our priorities. :-) 
+We pulled in to a very nice looking hotel. It has quick access to the highway, Wal-Mart and plenty of restaurants. 
+When we went in, we were immediately greeted by a very friendly lady. She checked us in and gave us the low-down on breakfast. We went into our room and my husband and I both said...WOW! It was a beautiful room! Very clean and decorated beautifully! My honey went and plopped down on the bed and was very pleased! The room had a small coffee pot, microwave and a small fridge. The fridge didn't work very well, but that wasn't important to us. We brought a small DVD player so we could veg out and watch Netflix. It was a wonderful evening in! Our room was on the 3rd floor, right next to the ice machine room. We were a little concerned, but we had no noise issues at all. 
+The next morning, we went for breakfast. There was, of course, waffles, but my honey cannot have any gluten. We were pleased that they had egg patties and sausage patties, plus plenty of fruit and very good coffee. 
+When we went to check out, the manager was actually working. I told him that...We went to Houston for a training class. I chose this hotel because it is close to our favorite restaurant, Guadalajara Hacienda (The Woodlands). The training was an hour away, but we had our priorities. :-) We pulled in to a very nice looking hotel. It has quick access to the highway, Wal-Mart and plenty of restaurants. When we went in, we were immediately greeted by a very friendly lady. She checked us in and gave us the low-down on breakfast. We went into our room and my husband and I both said...WOW! It was a beautiful room! Very clean and decorated beautifully! My honey went and plopped down on the bed and was very pleased! The room had a small coffee pot, microwave and a small fridge. The fridge didn't work very well, but that wasn't important to us. We brought a small DVD player so we could veg out and watch Netflix. It was a wonderful evening in! Our room was on the 3rd floor, right next to the ice machine room. We were a little concerned, but we had no noise issues at all. The next morning, we went for breakfast. There was, of course, waffles, but my honey cannot have any gluten. We were pleased that they had egg patties and sausage patties, plus plenty of fruit and very good coffee. When we went to check out, the manager was actually working. I told him that we had been very pleased with our stay. We told him what room we were in and he said, oh you had a training class an hour away! We were very impressed. Such a small detail, that didn't seem important to remember, but the first gal had made a note. Great customer service!All in all, we will definitely stay here again, the next time we have a training class! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r433387345-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>433387345</t>
+  </si>
+  <si>
+    <t>10/31/2016</t>
+  </si>
+  <si>
+    <t>Quiet and Desk Clerks Very Friendly</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel for 1 night ( passing thru) Oct 14th and my stay was very pleasant.The room was very clean and didn't have that musty smell some hotels have. Breakfast was hot!!!The only thing i didn't like was my room was facing the wooded area in the back, but I wouldn't let that stop me from staying again, after all I wasn't sleeping outside or on the 1st floor. Great Hotel.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r421415361-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>421415361</t>
+  </si>
+  <si>
+    <t>09/23/2016</t>
+  </si>
+  <si>
+    <t>Christmas/New Year 2015/16</t>
+  </si>
+  <si>
+    <t>Arrived at this hotel after being transferred from Comfort Suites Houston.  Was really pleased when arrived, much better and friendly hotel.   The lady on reception (sorry can't remember her name) was very welcoming to my young Son &amp; I and we were put in a lovely family room with two double beds and a pull out sofa bed.   The room was large enough for our needs with a fridge, microwave and coffee/tea making facilities.  There was air con in the room, which although we were there in December/January we had on quite a lot.  The bathroom was large enough for your needs with a lovely powerful shower.   The beds were extremely comfy.  This hotel is in a great position, with shops just over the road, and if you have a car there are loads of places to go and see.    We were there for in Texas for 3 weeks - hoping to be moving out there - which unfortunately fell through, but we found Texas and this Hotel and Staff very welcoming and would go back in a blink of an eye and hope to do this again very soon.    Thank you to the reception staff who took care of us when my husband was not there.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>gwendysuethurman, Guest Relations Manager at Comfort Suites, responded to this reviewResponded September 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 26, 2016</t>
+  </si>
+  <si>
+    <t>Arrived at this hotel after being transferred from Comfort Suites Houston.  Was really pleased when arrived, much better and friendly hotel.   The lady on reception (sorry can't remember her name) was very welcoming to my young Son &amp; I and we were put in a lovely family room with two double beds and a pull out sofa bed.   The room was large enough for our needs with a fridge, microwave and coffee/tea making facilities.  There was air con in the room, which although we were there in December/January we had on quite a lot.  The bathroom was large enough for your needs with a lovely powerful shower.   The beds were extremely comfy.  This hotel is in a great position, with shops just over the road, and if you have a car there are loads of places to go and see.    We were there for in Texas for 3 weeks - hoping to be moving out there - which unfortunately fell through, but we found Texas and this Hotel and Staff very welcoming and would go back in a blink of an eye and hope to do this again very soon.    Thank you to the reception staff who took care of us when my husband was not there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r399709038-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>399709038</t>
+  </si>
+  <si>
+    <t>07/31/2016</t>
+  </si>
+  <si>
+    <t>Really Well Done</t>
+  </si>
+  <si>
+    <t>This property is really well done with rooms that look like they were just built.  The staff was really helpful telling us about local food and making sure everything was OK during our stay.The location is near the highway and near shopping and dining.  The breakfast was great and had a huge selection.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>gwendysuethurman, Guest Relations Manager at Comfort Suites, responded to this reviewResponded August 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 1, 2016</t>
+  </si>
+  <si>
+    <t>This property is really well done with rooms that look like they were just built.  The staff was really helpful telling us about local food and making sure everything was OK during our stay.The location is near the highway and near shopping and dining.  The breakfast was great and had a huge selection.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r396394313-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>396394313</t>
+  </si>
+  <si>
+    <t>07/24/2016</t>
+  </si>
+  <si>
+    <t>Not up to usual Comfort Suites standard</t>
+  </si>
+  <si>
+    <t>We have stayed at other Comfort Suites elsewhere, as the 2 bed + sofa bed configuration works well for our family.  Usually we are quite pleased by this chain, but this location was disappointing.  The pool was itty bitty and CLOSED while we were there, and our room was tired.  The layout was typical, and the regular beds were fine, but the fabric on the sofa was grimy, and the fold-out bed was really uncomfortable.  When I tried to print our boarding passes in the business center, the printer would not work.  The front desk employee was very earnestly trying to help me, but she could not get it to print, either.  Overall, things at this Comfort Suites were just not up to our expectation for this chain.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>gwendysuethurman, Guest Relations Manager at Comfort Suites, responded to this reviewResponded July 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2016</t>
+  </si>
+  <si>
+    <t>We have stayed at other Comfort Suites elsewhere, as the 2 bed + sofa bed configuration works well for our family.  Usually we are quite pleased by this chain, but this location was disappointing.  The pool was itty bitty and CLOSED while we were there, and our room was tired.  The layout was typical, and the regular beds were fine, but the fabric on the sofa was grimy, and the fold-out bed was really uncomfortable.  When I tried to print our boarding passes in the business center, the printer would not work.  The front desk employee was very earnestly trying to help me, but she could not get it to print, either.  Overall, things at this Comfort Suites were just not up to our expectation for this chain.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r388081913-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>388081913</t>
+  </si>
+  <si>
+    <t>07/01/2016</t>
+  </si>
+  <si>
+    <t>Overnight stay</t>
+  </si>
+  <si>
+    <t>I always stay here when I'm in Houston for business. The front desk personnel are friendly and the check in process is always quick and hassle free. The continental breakfast is good for starting your day off. This hotel is located strategically by many fun things to do, like Splashtown, golfing, and shopping. MoreShow less</t>
+  </si>
+  <si>
+    <t>gwendysuethurman, Guest Relations Manager at Comfort Suites, responded to this reviewResponded July 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 5, 2016</t>
+  </si>
+  <si>
+    <t>I always stay here when I'm in Houston for business. The front desk personnel are friendly and the check in process is always quick and hassle free. The continental breakfast is good for starting your day off. This hotel is located strategically by many fun things to do, like Splashtown, golfing, and shopping. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r375569252-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>375569252</t>
+  </si>
+  <si>
+    <t>05/22/2016</t>
+  </si>
+  <si>
+    <t>Convenient for the occassion.</t>
+  </si>
+  <si>
+    <t>Friendly staff. We enjoyed our stay and would recommend to family and friends. We enjoyed the complimentary breakfast. The hotel was located near popular dining places and shopping. The rooms were clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>gwendysuethurman, Guest Relations Manager at Comfort Suites, responded to this reviewResponded May 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2016</t>
+  </si>
+  <si>
+    <t>Friendly staff. We enjoyed our stay and would recommend to family and friends. We enjoyed the complimentary breakfast. The hotel was located near popular dining places and shopping. The rooms were clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r373503254-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>373503254</t>
+  </si>
+  <si>
+    <t>05/16/2016</t>
+  </si>
+  <si>
+    <t>Me land</t>
+  </si>
+  <si>
+    <t>This inexpensive motel was very friendly, clean, and convenient. They had a great breakfast. A USA today paper every day. Great room service. They even gave me a late checkout time. I will use Comfort Suites again in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>gwendysuethurman, Guest Relations Manager at Comfort Suites, responded to this reviewResponded May 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 17, 2016</t>
+  </si>
+  <si>
+    <t>This inexpensive motel was very friendly, clean, and convenient. They had a great breakfast. A USA today paper every day. Great room service. They even gave me a late checkout time. I will use Comfort Suites again in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r354919375-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>354919375</t>
+  </si>
+  <si>
+    <t>03/12/2016</t>
+  </si>
+  <si>
+    <t>Really</t>
+  </si>
+  <si>
+    <t>Great staff! Great knowledge of area &amp; friendly. Nice room. Beds in my room will need replaced in the near future. Hot tub was cold. Close to walmart ,chickfila &amp; Ross. Nice fitness area. Would stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>gwendysuethurman, Guest Relations Manager at Comfort Suites, responded to this reviewResponded March 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 14, 2016</t>
+  </si>
+  <si>
+    <t>Great staff! Great knowledge of area &amp; friendly. Nice room. Beds in my room will need replaced in the near future. Hot tub was cold. Close to walmart ,chickfila &amp; Ross. Nice fitness area. Would stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r352424351-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>352424351</t>
+  </si>
+  <si>
+    <t>03/02/2016</t>
+  </si>
+  <si>
+    <t>Comfort</t>
+  </si>
+  <si>
+    <t>We really did enjoy our visit at this Comfort Suites. The staff were over the top friendly, helpful and a joy to converse with. Room was a large one with all the conveniences of home. House keeping kept the room comfortableMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>gwendysuethurman, Guest Relations Manager at Comfort Suites, responded to this reviewResponded March 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 3, 2016</t>
+  </si>
+  <si>
+    <t>We really did enjoy our visit at this Comfort Suites. The staff were over the top friendly, helpful and a joy to converse with. Room was a large one with all the conveniences of home. House keeping kept the room comfortableMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r340480281-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>340480281</t>
+  </si>
+  <si>
+    <t>01/16/2016</t>
+  </si>
+  <si>
+    <t>Blackout</t>
+  </si>
+  <si>
+    <t>We spent just one night in this hotel and chose it for it's close location to Spring.  Driving in from the airport we could tell the weather was going to get worse, and we weren't wrong.  The hotel itself was a typical Comfort Suites, although it felt small with just two of us in the room.  Amenities were adequate: coffee maker in the room, bath sundries, comfy and clean bed, OK TV, good wifi and free breakfast.But during the night the power went out and stayed out for most of our stay, causing us to miss breakfast (cereal milk stayed cold and coffee stayed hot during power-out).The weather was obviously out of the hotel's control, but I can compliment them for reacting well to those who wandered down early in the morning looking for a wake-up juice or coffee.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>gwendysuethurman, Guest Relations Manager at Comfort Suites, responded to this reviewResponded January 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 18, 2016</t>
+  </si>
+  <si>
+    <t>We spent just one night in this hotel and chose it for it's close location to Spring.  Driving in from the airport we could tell the weather was going to get worse, and we weren't wrong.  The hotel itself was a typical Comfort Suites, although it felt small with just two of us in the room.  Amenities were adequate: coffee maker in the room, bath sundries, comfy and clean bed, OK TV, good wifi and free breakfast.But during the night the power went out and stayed out for most of our stay, causing us to miss breakfast (cereal milk stayed cold and coffee stayed hot during power-out).The weather was obviously out of the hotel's control, but I can compliment them for reacting well to those who wandered down early in the morning looking for a wake-up juice or coffee.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r327043876-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>327043876</t>
+  </si>
+  <si>
+    <t>11/15/2015</t>
+  </si>
+  <si>
+    <t>Great employees and hotel, workout before you come!</t>
+  </si>
+  <si>
+    <t>Great customer service, but Comfort Suites dropped the ball on this new hotel.  An old, rusty treadmill, really?  And outdoor pool in Texas closed, for Ohioans, summer down south is year round.  Comfy meeting lounge area, but don't eat a big breakfast because you would be better off running outside.  No free weights, rusty treadmill that used a magnet versus a treadmill "key".  No wonder there is no bottled water, you don't want to sweat. Ask for discounts, AND a room that is NOT facing the traffic, yikes!  Thought I was sleeping on the freeway!MoreShow less</t>
+  </si>
+  <si>
+    <t>jbh3577, General Manager at Comfort Suites, responded to this reviewResponded November 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 17, 2015</t>
+  </si>
+  <si>
+    <t>Great customer service, but Comfort Suites dropped the ball on this new hotel.  An old, rusty treadmill, really?  And outdoor pool in Texas closed, for Ohioans, summer down south is year round.  Comfy meeting lounge area, but don't eat a big breakfast because you would be better off running outside.  No free weights, rusty treadmill that used a magnet versus a treadmill "key".  No wonder there is no bottled water, you don't want to sweat. Ask for discounts, AND a room that is NOT facing the traffic, yikes!  Thought I was sleeping on the freeway!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r318003284-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>318003284</t>
+  </si>
+  <si>
+    <t>10/12/2015</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>I visited this hotel in October for 4 nights for the purpose of job training at our corporate office nearby. This hotel is clean and looked to have been updated recently. Friendly, helpful staff. WiFi was quite glitchy and slow. However, I will still use this hotel if I were to return. It is close to restaurants, major highways and attractions.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>jbh3577, Manager at Comfort Suites, responded to this reviewResponded October 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 22, 2015</t>
+  </si>
+  <si>
+    <t>I visited this hotel in October for 4 nights for the purpose of job training at our corporate office nearby. This hotel is clean and looked to have been updated recently. Friendly, helpful staff. WiFi was quite glitchy and slow. However, I will still use this hotel if I were to return. It is close to restaurants, major highways and attractions.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r317182585-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>317182585</t>
+  </si>
+  <si>
+    <t>10/08/2015</t>
+  </si>
+  <si>
+    <t>The greatest front desk person; Andrea Johnson: She was friendly and solved all of our problems</t>
+  </si>
+  <si>
+    <t>We stayed three nights and found the hotel to be very accommodating;  We had issues with a noisy neighbor who played a loud television all night.  Management did all that they could to solve that problem.  The manager Jason Headly was a caring individual who listened;</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r302290785-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>302290785</t>
+  </si>
+  <si>
+    <t>08/22/2015</t>
+  </si>
+  <si>
+    <t>Brilliant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed here with a soccer tournament.  Andrea at the front desk was so nice. Really helped our team get their muddy jerseys taken care of.  We were SO APPRECIATIVE. The rooms are great for the price point and the beds were very good.  Will stay here again for future Houston tournaments. </t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r302056748-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>302056748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steer Clear! Horrible Experience! </t>
+  </si>
+  <si>
+    <t>The last time I stayed here two weekends ago the room was missing the ironing board, the iron, and the TV remote. Called front desk right before 11:00 pm to ask for missing items and the lady said she would get right on that. I had a meeting in the morning so needed to iron my shirt. So I waited 30 minutes and called back. This time a gruff male voice answers the phone and says he wasn't told anything by the lady who left at 11. He says he will bring items to my room which was directly behind the front desk. Room 106. Another 30 minutes and I walked on over to the front desk myself. A bouncer looking gentleman behind the counter without looking up  from his laptop rudely informs me that they 'ain't got no more of them thangs' and that he wasn't kidding. I said okay and went right back to my room. The next morning, I walked into the dinning area at 9:30 AM for breakfast is supposed to be served until 10 AM. Upon my arrival, the older lady who had been idly standing around hurriedly removed what was remaining of the breakfast and when I tried to tell her there was still 30 minutes til 10 she smiled and pretended to not speak any English and murmured something in Spanish and continued on with what she was doing. I still gave this...The last time I stayed here two weekends ago the room was missing the ironing board, the iron, and the TV remote. Called front desk right before 11:00 pm to ask for missing items and the lady said she would get right on that. I had a meeting in the morning so needed to iron my shirt. So I waited 30 minutes and called back. This time a gruff male voice answers the phone and says he wasn't told anything by the lady who left at 11. He says he will bring items to my room which was directly behind the front desk. Room 106. Another 30 minutes and I walked on over to the front desk myself. A bouncer looking gentleman behind the counter without looking up  from his laptop rudely informs me that they 'ain't got no more of them thangs' and that he wasn't kidding. I said okay and went right back to my room. The next morning, I walked into the dinning area at 9:30 AM for breakfast is supposed to be served until 10 AM. Upon my arrival, the older lady who had been idly standing around hurriedly removed what was remaining of the breakfast and when I tried to tell her there was still 30 minutes til 10 she smiled and pretended to not speak any English and murmured something in Spanish and continued on with what she was doing. I still gave this place the benefit of the doubt and booked with them through the choice hotels app for this weekend for I'm a card carrying Gold Member. A few minutes after making the reservation while my three year old son and I were about two hours drive away near Beaumont on I-10 when our rental suddenly had a flat. To make a long story short, I called the hotel, understanding full well that I cannot cancel the reservation, but I tried to reason with the woman on the phone and told her due to an emergency I may not be able to check in tonight and if I could just come in in the morning and pay cash since I was going to be using the same card for tonight's issues. Now, I understand policy. But, I have stayed at this location at least a dozen times in the last year or so. And maybe as a result of my frequent visits there I might've expected a little better service and professionalism but the woman on the phone spoke extremely rudely, refused to even listen or give me a chance to speak without cutting me off repeatedly and flatly said as a matter of policy she could not let me check in in the morning and that I would be charged 150 dollars for one day as a no show (which my card was charged immediately after the phone call was over, without even waiting to see if I did actually could make it) and that if I came in the next day I would just have to make a new reservation and that could not be guaranteed. This hotel did the same thing to me last November as well when even 24 hours prior they refused to cancel a reservation. This whole experience has been very disappointing to say the least, and so no longer will I ever be staying here again, and will make sure none of my friends and family come anywhere near this place. I will make sure to post my experience in as many social media venues as possible to expose their business practices to as many people as possible and will contact corporate as well though I don't expect much better service from them, either. MoreShow less</t>
+  </si>
+  <si>
+    <t>The last time I stayed here two weekends ago the room was missing the ironing board, the iron, and the TV remote. Called front desk right before 11:00 pm to ask for missing items and the lady said she would get right on that. I had a meeting in the morning so needed to iron my shirt. So I waited 30 minutes and called back. This time a gruff male voice answers the phone and says he wasn't told anything by the lady who left at 11. He says he will bring items to my room which was directly behind the front desk. Room 106. Another 30 minutes and I walked on over to the front desk myself. A bouncer looking gentleman behind the counter without looking up  from his laptop rudely informs me that they 'ain't got no more of them thangs' and that he wasn't kidding. I said okay and went right back to my room. The next morning, I walked into the dinning area at 9:30 AM for breakfast is supposed to be served until 10 AM. Upon my arrival, the older lady who had been idly standing around hurriedly removed what was remaining of the breakfast and when I tried to tell her there was still 30 minutes til 10 she smiled and pretended to not speak any English and murmured something in Spanish and continued on with what she was doing. I still gave this...The last time I stayed here two weekends ago the room was missing the ironing board, the iron, and the TV remote. Called front desk right before 11:00 pm to ask for missing items and the lady said she would get right on that. I had a meeting in the morning so needed to iron my shirt. So I waited 30 minutes and called back. This time a gruff male voice answers the phone and says he wasn't told anything by the lady who left at 11. He says he will bring items to my room which was directly behind the front desk. Room 106. Another 30 minutes and I walked on over to the front desk myself. A bouncer looking gentleman behind the counter without looking up  from his laptop rudely informs me that they 'ain't got no more of them thangs' and that he wasn't kidding. I said okay and went right back to my room. The next morning, I walked into the dinning area at 9:30 AM for breakfast is supposed to be served until 10 AM. Upon my arrival, the older lady who had been idly standing around hurriedly removed what was remaining of the breakfast and when I tried to tell her there was still 30 minutes til 10 she smiled and pretended to not speak any English and murmured something in Spanish and continued on with what she was doing. I still gave this place the benefit of the doubt and booked with them through the choice hotels app for this weekend for I'm a card carrying Gold Member. A few minutes after making the reservation while my three year old son and I were about two hours drive away near Beaumont on I-10 when our rental suddenly had a flat. To make a long story short, I called the hotel, understanding full well that I cannot cancel the reservation, but I tried to reason with the woman on the phone and told her due to an emergency I may not be able to check in tonight and if I could just come in in the morning and pay cash since I was going to be using the same card for tonight's issues. Now, I understand policy. But, I have stayed at this location at least a dozen times in the last year or so. And maybe as a result of my frequent visits there I might've expected a little better service and professionalism but the woman on the phone spoke extremely rudely, refused to even listen or give me a chance to speak without cutting me off repeatedly and flatly said as a matter of policy she could not let me check in in the morning and that I would be charged 150 dollars for one day as a no show (which my card was charged immediately after the phone call was over, without even waiting to see if I did actually could make it) and that if I came in the next day I would just have to make a new reservation and that could not be guaranteed. This hotel did the same thing to me last November as well when even 24 hours prior they refused to cancel a reservation. This whole experience has been very disappointing to say the least, and so no longer will I ever be staying here again, and will make sure none of my friends and family come anywhere near this place. I will make sure to post my experience in as many social media venues as possible to expose their business practices to as many people as possible and will contact corporate as well though I don't expect much better service from them, either. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r295287848-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>295287848</t>
+  </si>
+  <si>
+    <t>08/03/2015</t>
+  </si>
+  <si>
+    <t>Best hotel in Spring, Texas!</t>
+  </si>
+  <si>
+    <t>The room was spacious, clean and quiet. We were there for a week.  The staff was very friendly and helpful! The price was definitely worth the whole experience.  The only suggestion would be to have a different selection for breakfast. I would like to specifically mention Andrea Johnson by name. She works at the front desk, and  I had opportunity to witness her great positive attitude and professionalism dealing with customers as I waited in the lobby a few times for extended periods for friends.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r275702440-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>275702440</t>
+  </si>
+  <si>
+    <t>05/30/2015</t>
+  </si>
+  <si>
+    <t>Paper Thin Walls</t>
+  </si>
+  <si>
+    <t>The good: 
+*This hotel is clean. The lobby, breakfast area and my room were all clean. If it weren't for the cleanliness of this hotel, I would have ranked it lower. 
+*Easy to find. Near the interstate and several restaurants. If you want to walk to a restaurant, you'll have to cross a fairly busy street though.
+*Friendly front desk staff. They were helpful in recommending restaurants in the area.
+*Decent breakfast. Nothing fancy, but typical "free" hotel breakfast. Cereal, oatmeal, eggs, yogurt, make your own waffles, biscuits (no gravy = weird). 
+*Decent wifi. I was able to log into work from my room and didn't have any speed issues.
+The bad: 
+*Paper thin walls. This was the most irritating thing! I could hear every single thing my neighbors were doing, from watching TV (I could even hear individual words coming from their TVs), to talking on the phone (could hear all the details of their conversations), to bodily noises. It's ridiculous really. My neighbor decided that he wanted to stay up until 12:30am and then he got up at 5am. Consequently, so did I. I feel like I know the guy pretty well by now though. He enjoys crime shows on TV, had something for dinner that made him very gassy and he missed his wife. Trust me, I heard everything. 
+*Do not disturb doesn't mean anything. I was there for only 2 nights. Typically I put my do...The good: *This hotel is clean. The lobby, breakfast area and my room were all clean. If it weren't for the cleanliness of this hotel, I would have ranked it lower. *Easy to find. Near the interstate and several restaurants. If you want to walk to a restaurant, you'll have to cross a fairly busy street though.*Friendly front desk staff. They were helpful in recommending restaurants in the area.*Decent breakfast. Nothing fancy, but typical "free" hotel breakfast. Cereal, oatmeal, eggs, yogurt, make your own waffles, biscuits (no gravy = weird). *Decent wifi. I was able to log into work from my room and didn't have any speed issues.The bad: *Paper thin walls. This was the most irritating thing! I could hear every single thing my neighbors were doing, from watching TV (I could even hear individual words coming from their TVs), to talking on the phone (could hear all the details of their conversations), to bodily noises. It's ridiculous really. My neighbor decided that he wanted to stay up until 12:30am and then he got up at 5am. Consequently, so did I. I feel like I know the guy pretty well by now though. He enjoys crime shows on TV, had something for dinner that made him very gassy and he missed his wife. Trust me, I heard everything. *Do not disturb doesn't mean anything. I was there for only 2 nights. Typically I put my do not disturb sign on the door, and I reuse my towel for a second time. At this hotel, I put my do not disturb sign on the door, but they came in any way. The housekeeping staff didn't clean the room, but they did take my towels and bathmat and they left the bathroom light on. I realized immediately they had been there because the towels were all missing...and they didn't replace them! Irritating. I'm not sure how they earned a "green" rating with practices like this. Overall, this was average. Nothing outstanding, and certainly a couple of highly irritating things, in my opinion. The cleanliness earned it an "average" rating from me, otherwise it would have been lower.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>SpringTx323, General Manager at Comfort Suites, responded to this reviewResponded June 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 1, 2015</t>
+  </si>
+  <si>
+    <t>The good: 
+*This hotel is clean. The lobby, breakfast area and my room were all clean. If it weren't for the cleanliness of this hotel, I would have ranked it lower. 
+*Easy to find. Near the interstate and several restaurants. If you want to walk to a restaurant, you'll have to cross a fairly busy street though.
+*Friendly front desk staff. They were helpful in recommending restaurants in the area.
+*Decent breakfast. Nothing fancy, but typical "free" hotel breakfast. Cereal, oatmeal, eggs, yogurt, make your own waffles, biscuits (no gravy = weird). 
+*Decent wifi. I was able to log into work from my room and didn't have any speed issues.
+The bad: 
+*Paper thin walls. This was the most irritating thing! I could hear every single thing my neighbors were doing, from watching TV (I could even hear individual words coming from their TVs), to talking on the phone (could hear all the details of their conversations), to bodily noises. It's ridiculous really. My neighbor decided that he wanted to stay up until 12:30am and then he got up at 5am. Consequently, so did I. I feel like I know the guy pretty well by now though. He enjoys crime shows on TV, had something for dinner that made him very gassy and he missed his wife. Trust me, I heard everything. 
+*Do not disturb doesn't mean anything. I was there for only 2 nights. Typically I put my do...The good: *This hotel is clean. The lobby, breakfast area and my room were all clean. If it weren't for the cleanliness of this hotel, I would have ranked it lower. *Easy to find. Near the interstate and several restaurants. If you want to walk to a restaurant, you'll have to cross a fairly busy street though.*Friendly front desk staff. They were helpful in recommending restaurants in the area.*Decent breakfast. Nothing fancy, but typical "free" hotel breakfast. Cereal, oatmeal, eggs, yogurt, make your own waffles, biscuits (no gravy = weird). *Decent wifi. I was able to log into work from my room and didn't have any speed issues.The bad: *Paper thin walls. This was the most irritating thing! I could hear every single thing my neighbors were doing, from watching TV (I could even hear individual words coming from their TVs), to talking on the phone (could hear all the details of their conversations), to bodily noises. It's ridiculous really. My neighbor decided that he wanted to stay up until 12:30am and then he got up at 5am. Consequently, so did I. I feel like I know the guy pretty well by now though. He enjoys crime shows on TV, had something for dinner that made him very gassy and he missed his wife. Trust me, I heard everything. *Do not disturb doesn't mean anything. I was there for only 2 nights. Typically I put my do not disturb sign on the door, and I reuse my towel for a second time. At this hotel, I put my do not disturb sign on the door, but they came in any way. The housekeeping staff didn't clean the room, but they did take my towels and bathmat and they left the bathroom light on. I realized immediately they had been there because the towels were all missing...and they didn't replace them! Irritating. I'm not sure how they earned a "green" rating with practices like this. Overall, this was average. Nothing outstanding, and certainly a couple of highly irritating things, in my opinion. The cleanliness earned it an "average" rating from me, otherwise it would have been lower.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r272146868-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>272146868</t>
+  </si>
+  <si>
+    <t>05/15/2015</t>
+  </si>
+  <si>
+    <t>Very poor business climate.</t>
+  </si>
+  <si>
+    <t>For the prices that were charged for a stay, this hotel is very poor for a business trip.  There was absolutely no internet or Wi-Fi service. I was unable to access the internet via my tablet and in  their "business office", I was unable to maintain access to the internet and was booted off 3 times before I gave up.  I have yet to speak to manager about this problem and the response from the front desk is that "customers have been complaining.  The breakfast food was mediocre.MoreShow less</t>
+  </si>
+  <si>
+    <t>SpringTx323, General Manager at Comfort Suites, responded to this reviewResponded May 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 18, 2015</t>
+  </si>
+  <si>
+    <t>For the prices that were charged for a stay, this hotel is very poor for a business trip.  There was absolutely no internet or Wi-Fi service. I was unable to access the internet via my tablet and in  their "business office", I was unable to maintain access to the internet and was booted off 3 times before I gave up.  I have yet to speak to manager about this problem and the response from the front desk is that "customers have been complaining.  The breakfast food was mediocre.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r270034301-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>270034301</t>
+  </si>
+  <si>
+    <t>05/04/2015</t>
+  </si>
+  <si>
+    <t>Waste of money</t>
+  </si>
+  <si>
+    <t>My boyfriend and I stayed at this hotel on May 3rd, 2015 and overall the experience was just ok. Checking in took a long time and they didn't seem to know what they were looking at on the computer. The room itself was super beautiful and had great modern touches like the sink in the bathroom, a hidden fridge, huge closet, good TV channels, etc. There is free Wifi which is also an extra perk and they offer free breakfast from 6-9 on weekdays however we chose to dine out instead. There is a nice business center and fitness room but we did not use these. However the pool was closed which was a huge bummer as we looked super forward to swimming, and check in was at 3pm and check out at noon the next day with no option of late check out. For us personally it was a waste of OVER $100 for a room for less than 24 hours. I understand sometimes hotels get booked and want to make sure there is enough time for housekeeping, however if someone is paying over $100 a night I think you can extend check out by at least an hour. We have stayed at cheap motels and been offered better check out time options as a courtesy. The checking out process was also as long as the check in process. Overall it was a nice hotel but way overpriced and...My boyfriend and I stayed at this hotel on May 3rd, 2015 and overall the experience was just ok. Checking in took a long time and they didn't seem to know what they were looking at on the computer. The room itself was super beautiful and had great modern touches like the sink in the bathroom, a hidden fridge, huge closet, good TV channels, etc. There is free Wifi which is also an extra perk and they offer free breakfast from 6-9 on weekdays however we chose to dine out instead. There is a nice business center and fitness room but we did not use these. However the pool was closed which was a huge bummer as we looked super forward to swimming, and check in was at 3pm and check out at noon the next day with no option of late check out. For us personally it was a waste of OVER $100 for a room for less than 24 hours. I understand sometimes hotels get booked and want to make sure there is enough time for housekeeping, however if someone is paying over $100 a night I think you can extend check out by at least an hour. We have stayed at cheap motels and been offered better check out time options as a courtesy. The checking out process was also as long as the check in process. Overall it was a nice hotel but way overpriced and we would not stay here again or recommend to a friend.MoreShow less</t>
+  </si>
+  <si>
+    <t>My boyfriend and I stayed at this hotel on May 3rd, 2015 and overall the experience was just ok. Checking in took a long time and they didn't seem to know what they were looking at on the computer. The room itself was super beautiful and had great modern touches like the sink in the bathroom, a hidden fridge, huge closet, good TV channels, etc. There is free Wifi which is also an extra perk and they offer free breakfast from 6-9 on weekdays however we chose to dine out instead. There is a nice business center and fitness room but we did not use these. However the pool was closed which was a huge bummer as we looked super forward to swimming, and check in was at 3pm and check out at noon the next day with no option of late check out. For us personally it was a waste of OVER $100 for a room for less than 24 hours. I understand sometimes hotels get booked and want to make sure there is enough time for housekeeping, however if someone is paying over $100 a night I think you can extend check out by at least an hour. We have stayed at cheap motels and been offered better check out time options as a courtesy. The checking out process was also as long as the check in process. Overall it was a nice hotel but way overpriced and...My boyfriend and I stayed at this hotel on May 3rd, 2015 and overall the experience was just ok. Checking in took a long time and they didn't seem to know what they were looking at on the computer. The room itself was super beautiful and had great modern touches like the sink in the bathroom, a hidden fridge, huge closet, good TV channels, etc. There is free Wifi which is also an extra perk and they offer free breakfast from 6-9 on weekdays however we chose to dine out instead. There is a nice business center and fitness room but we did not use these. However the pool was closed which was a huge bummer as we looked super forward to swimming, and check in was at 3pm and check out at noon the next day with no option of late check out. For us personally it was a waste of OVER $100 for a room for less than 24 hours. I understand sometimes hotels get booked and want to make sure there is enough time for housekeeping, however if someone is paying over $100 a night I think you can extend check out by at least an hour. We have stayed at cheap motels and been offered better check out time options as a courtesy. The checking out process was also as long as the check in process. Overall it was a nice hotel but way overpriced and we would not stay here again or recommend to a friend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r250714128-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>250714128</t>
+  </si>
+  <si>
+    <t>01/23/2015</t>
+  </si>
+  <si>
+    <t>Good hotel for it's category</t>
+  </si>
+  <si>
+    <t>The title says it all. It is not upmarket. The room is clean with nice amenities. Our room was quiet. A friend stayed here and her room faced the main road. It was noisy and she had to switch rooms. Make sure you ask for a quiet room facing the back. Breakfast far exceeded expectations. If you are looking for a good nearby restaurant conside Rokku, really good Vietnamese food.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>SpringTx323, General Manager at Comfort Suites, responded to this reviewResponded April 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 14, 2015</t>
+  </si>
+  <si>
+    <t>The title says it all. It is not upmarket. The room is clean with nice amenities. Our room was quiet. A friend stayed here and her room faced the main road. It was noisy and she had to switch rooms. Make sure you ask for a quiet room facing the back. Breakfast far exceeded expectations. If you are looking for a good nearby restaurant conside Rokku, really good Vietnamese food.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r247125399-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>247125399</t>
+  </si>
+  <si>
+    <t>01/03/2015</t>
+  </si>
+  <si>
+    <t>Very decent!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I stayed here a few weeks ago for a class in their conference room. This place is a great deal.  Very clean and modern with a fantastic staff!  The bed looked to have seen better days but still offered a good night's sleep.  The only downside was the noise from other rooms.  The walls are rather thin and I could hear the guy above me walking around.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r246266581-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>246266581</t>
+  </si>
+  <si>
+    <t>12/28/2014</t>
+  </si>
+  <si>
+    <t>Didn't Want to Leave</t>
+  </si>
+  <si>
+    <t>This was one of the best hotels. The room layout was great, unique. I didn't like the bathroom sink but it was very modern. The room had a microwave, refrigerator and sofa. The USB ports with the extra outlets were wonderful! This hotel had a closet size store to purchase snacks, etc. also had vending machines. The bed was super comfortable felt as if it was inside a waterbed frame, lots of pillows even a card explaining firmness or soft pillows. The room booklet was very helpful which listed lots of valuable information for local places &amp; hotels. I used the laundry machines a $1 a load. There was a exercise room next door. Breakfast was the usual stuff consisting of eggs, sausage, lots of cereal, juice etc. The staff was friendly. I would stay there every time I went to Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>This was one of the best hotels. The room layout was great, unique. I didn't like the bathroom sink but it was very modern. The room had a microwave, refrigerator and sofa. The USB ports with the extra outlets were wonderful! This hotel had a closet size store to purchase snacks, etc. also had vending machines. The bed was super comfortable felt as if it was inside a waterbed frame, lots of pillows even a card explaining firmness or soft pillows. The room booklet was very helpful which listed lots of valuable information for local places &amp; hotels. I used the laundry machines a $1 a load. There was a exercise room next door. Breakfast was the usual stuff consisting of eggs, sausage, lots of cereal, juice etc. The staff was friendly. I would stay there every time I went to Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r237674377-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>237674377</t>
+  </si>
+  <si>
+    <t>11/02/2014</t>
+  </si>
+  <si>
+    <t>Sweet Comfort</t>
+  </si>
+  <si>
+    <t>The first thing I noticed as soon as I walked into this hotel is that it must be brand new. The building was nicely built, it was very clean, and quite a good size. Once settling in, the rooms were a nice size and I REALLY liked how there wasn't anything humid or odorous from the rooms like some other hotels do. The showers were wondrous although I would have to say that the sink was a tad too tall for my tastes. Breakfast buffet was simple but filling, and I loved the waffles so I was peachy. All-in-all, this hotel was a much more pleasant stay than I thought for its brand value.  The only slightly bad note I have to say is that since the hotel is near the freeway, there can be slight loudness from passing trucks (not much from regular vehicles) in the middle of the night so I suggest getting a room further back into the hotel if you're a light sleeper.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>The first thing I noticed as soon as I walked into this hotel is that it must be brand new. The building was nicely built, it was very clean, and quite a good size. Once settling in, the rooms were a nice size and I REALLY liked how there wasn't anything humid or odorous from the rooms like some other hotels do. The showers were wondrous although I would have to say that the sink was a tad too tall for my tastes. Breakfast buffet was simple but filling, and I loved the waffles so I was peachy. All-in-all, this hotel was a much more pleasant stay than I thought for its brand value.  The only slightly bad note I have to say is that since the hotel is near the freeway, there can be slight loudness from passing trucks (not much from regular vehicles) in the middle of the night so I suggest getting a room further back into the hotel if you're a light sleeper.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r232722926-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>232722926</t>
+  </si>
+  <si>
+    <t>10/05/2014</t>
+  </si>
+  <si>
+    <t>COMFORTable :)</t>
+  </si>
+  <si>
+    <t>Get the pun?! The rooms were very nice, clean and modern. The shower was awesome..I have never felt so refreshed after a hotel shower and especially after an 8 hour drive. 
+The only thing that was a little odd was no one gave us a straight answer concerning early check in. I called a week beforehand and they said they wouldn't know until the morning of and to call back. I called the day of and they said to come anytime after 1pm..we arrive at 2pm and the woman at the desk replies "y'all are an hour early for check in" I replied saying I called and someone told us to come in after 1pm..She gave us our room. When my uncle and aunt tried coming in at 2 she told them that out "no you need to wait until 3"...they are elderly and I thought it odd for them to do that.
+Also, they let the cleaning crew know what guests check out on what day..and even though checkout is at noon and you can be downstairs enjoying the free breakfast, if you don't have a do not disturb sign on the door, the cleaning crew begins cleaning at 9am and will throw away things that are left out of the suitcase. Which also happened to my aunt and uncle. LEAVE THE DO NOT DISTURB SIGN UP IF YOU PLAN TO CHECKOUT LAST MINUTE. 
+Other than that, great food...Get the pun?! The rooms were very nice, clean and modern. The shower was awesome..I have never felt so refreshed after a hotel shower and especially after an 8 hour drive. The only thing that was a little odd was no one gave us a straight answer concerning early check in. I called a week beforehand and they said they wouldn't know until the morning of and to call back. I called the day of and they said to come anytime after 1pm..we arrive at 2pm and the woman at the desk replies "y'all are an hour early for check in" I replied saying I called and someone told us to come in after 1pm..She gave us our room. When my uncle and aunt tried coming in at 2 she told them that out "no you need to wait until 3"...they are elderly and I thought it odd for them to do that.Also, they let the cleaning crew know what guests check out on what day..and even though checkout is at noon and you can be downstairs enjoying the free breakfast, if you don't have a do not disturb sign on the door, the cleaning crew begins cleaning at 9am and will throw away things that are left out of the suitcase. Which also happened to my aunt and uncle. LEAVE THE DO NOT DISTURB SIGN UP IF YOU PLAN TO CHECKOUT LAST MINUTE. Other than that, great food and lovely hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Get the pun?! The rooms were very nice, clean and modern. The shower was awesome..I have never felt so refreshed after a hotel shower and especially after an 8 hour drive. 
+The only thing that was a little odd was no one gave us a straight answer concerning early check in. I called a week beforehand and they said they wouldn't know until the morning of and to call back. I called the day of and they said to come anytime after 1pm..we arrive at 2pm and the woman at the desk replies "y'all are an hour early for check in" I replied saying I called and someone told us to come in after 1pm..She gave us our room. When my uncle and aunt tried coming in at 2 she told them that out "no you need to wait until 3"...they are elderly and I thought it odd for them to do that.
+Also, they let the cleaning crew know what guests check out on what day..and even though checkout is at noon and you can be downstairs enjoying the free breakfast, if you don't have a do not disturb sign on the door, the cleaning crew begins cleaning at 9am and will throw away things that are left out of the suitcase. Which also happened to my aunt and uncle. LEAVE THE DO NOT DISTURB SIGN UP IF YOU PLAN TO CHECKOUT LAST MINUTE. 
+Other than that, great food...Get the pun?! The rooms were very nice, clean and modern. The shower was awesome..I have never felt so refreshed after a hotel shower and especially after an 8 hour drive. The only thing that was a little odd was no one gave us a straight answer concerning early check in. I called a week beforehand and they said they wouldn't know until the morning of and to call back. I called the day of and they said to come anytime after 1pm..we arrive at 2pm and the woman at the desk replies "y'all are an hour early for check in" I replied saying I called and someone told us to come in after 1pm..She gave us our room. When my uncle and aunt tried coming in at 2 she told them that out "no you need to wait until 3"...they are elderly and I thought it odd for them to do that.Also, they let the cleaning crew know what guests check out on what day..and even though checkout is at noon and you can be downstairs enjoying the free breakfast, if you don't have a do not disturb sign on the door, the cleaning crew begins cleaning at 9am and will throw away things that are left out of the suitcase. Which also happened to my aunt and uncle. LEAVE THE DO NOT DISTURB SIGN UP IF YOU PLAN TO CHECKOUT LAST MINUTE. Other than that, great food and lovely hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r230612097-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>230612097</t>
+  </si>
+  <si>
+    <t>09/23/2014</t>
+  </si>
+  <si>
+    <t>Comfy</t>
+  </si>
+  <si>
+    <t>I enjoyed my 5 day stay at the Comfort Suites. The room was large with a nice seating and work area. The fitness center was small with limited and aging equipment. There were not any towels or water available in the fitness center either. I will stay again but would be nice to have an updated fitness center.</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r216360540-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>216360540</t>
+  </si>
+  <si>
+    <t>07/20/2014</t>
+  </si>
+  <si>
+    <t>top notch</t>
+  </si>
+  <si>
+    <t>I don't understand the few negative reviews I see here. The front desk people, the room, everything, could not have been better. Location is not that hard to find, beds are great, room was spotless, no noise at all. I think that the reviewers who complain may be from competitors or are people who have miserable lives and cannot be pleased. Highly recommended, and at a very reasonable price for the area.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r214061804-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>214061804</t>
+  </si>
+  <si>
+    <t>07/07/2014</t>
+  </si>
+  <si>
+    <t>Waterpark &amp; The Woodlands</t>
+  </si>
+  <si>
+    <t>This hotel provided a nice stay-cation 1 hour from my home.  We visited Wet and Wild next door and it was extremely nice to be able to crawl back to a close, clean place.  We were able to zip right up and down the freeway to the Woodlands and other attractions within 5 minutes because of the great freeway access.  The breakfast was very good and filling.  Kimmie was very pleasant and presented a cheerful and welcoming attitude even though she was working a holiday.  The rooms were clean and adequate.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r206333224-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>206333224</t>
+  </si>
+  <si>
+    <t>05/20/2014</t>
+  </si>
+  <si>
+    <t>Great Location</t>
+  </si>
+  <si>
+    <t>The hotel was very clean and welcoming. The staff was friendly and very helpful. One room with a single king size bed was perfect! Great sizer room, clean and cozy. The hotel is centrally located to whatever you may need during your time in Spring, TX. I highly recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>SpringTx323, General Manager at Comfort Suites, responded to this reviewResponded May 21, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 21, 2014</t>
+  </si>
+  <si>
+    <t>The hotel was very clean and welcoming. The staff was friendly and very helpful. One room with a single king size bed was perfect! Great sizer room, clean and cozy. The hotel is centrally located to whatever you may need during your time in Spring, TX. I highly recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r192882989-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>192882989</t>
+  </si>
+  <si>
+    <t>02/02/2014</t>
+  </si>
+  <si>
+    <t>We had a blast! Great Slumber Party</t>
+  </si>
+  <si>
+    <t>The room was a nice size for my daughters slumber party &amp; the staff was very helpful &amp; nice. I want to personally Thank Mrs. Crystal the manager for being so wonderful to me &amp; my guest!! We will definitely come back to this hotel!!! God bless MoreShow less</t>
+  </si>
+  <si>
+    <t>SpringTx323, Manager at Comfort Suites, responded to this reviewResponded February 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 4, 2014</t>
+  </si>
+  <si>
+    <t>The room was a nice size for my daughters slumber party &amp; the staff was very helpful &amp; nice. I want to personally Thank Mrs. Crystal the manager for being so wonderful to me &amp; my guest!! We will definitely come back to this hotel!!! God bless More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r185608273-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>185608273</t>
+  </si>
+  <si>
+    <t>11/23/2013</t>
+  </si>
+  <si>
+    <t>Very enjoyable stay....</t>
+  </si>
+  <si>
+    <t>Everyone that works here is friendly, very professional and willing to help.  Hotel is very nice and roomy.  Great location right off of the freeway.  Room was very clean and loved there was a refrigerator in the room!!! Free Wi-Fi is always a plus.  We travel a lot because of my daughters softball team.  We enjoyed our stay.</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r185138166-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>185138166</t>
+  </si>
+  <si>
+    <t>11/18/2013</t>
+  </si>
+  <si>
+    <t>Great location and very friendly staff</t>
+  </si>
+  <si>
+    <t>Easily one of the best Choice branded hotels I've ever stayed at.  Hotel itself is new and roomy and in a great location for whatever you're doing on the north side of Houston or the Woodlands.  The rooms have plenty of outlets (even near the bed), nice TV and really good WI-FI.  Had a nice reception every night in the common area with snacks and drinks.  I didn't do the breakfast, but a quick walk through and it looked decent enough (just didn't have time).  The staff was super friendly and actually made you feel like they wanted you to be there.  Would highly recommend to anyone staying in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>jbh3577, Manager at Comfort Suites, responded to this reviewResponded November 20, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 20, 2013</t>
+  </si>
+  <si>
+    <t>Easily one of the best Choice branded hotels I've ever stayed at.  Hotel itself is new and roomy and in a great location for whatever you're doing on the north side of Houston or the Woodlands.  The rooms have plenty of outlets (even near the bed), nice TV and really good WI-FI.  Had a nice reception every night in the common area with snacks and drinks.  I didn't do the breakfast, but a quick walk through and it looked decent enough (just didn't have time).  The staff was super friendly and actually made you feel like they wanted you to be there.  Would highly recommend to anyone staying in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r165204446-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>165204446</t>
+  </si>
+  <si>
+    <t>06/25/2013</t>
+  </si>
+  <si>
+    <t>WOW... A lot nicer than I expected...</t>
+  </si>
+  <si>
+    <t>This hotel was NICE... A lot nicer than I expected.  The room was HUGE, had a lounge type area, along with a semi-separate bedroom area.  I had a microwave, and a small fridge.VERY NICE for the price.Only thing I had concern / issue with was the fridge was EXTREMELY HOT when we arrived.  Needs to have a vent in the door or somewhere, as it seems to overheat, and therefore not keep the fridge cold.That and the usual issue with the wall mounted AC unit not keeping the room at the same temperature, did a decent job, but the lounge was a little warmer than closer to the bed.  Could be resolved with a wall mounted thermostat.Overall I was EXTREMELY impressed with this hotel.  I will be looking at Comfort Suites in a different light from now on.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>TexasHospitality101, Owner at Comfort Suites, responded to this reviewResponded October 8, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 8, 2013</t>
+  </si>
+  <si>
+    <t>This hotel was NICE... A lot nicer than I expected.  The room was HUGE, had a lounge type area, along with a semi-separate bedroom area.  I had a microwave, and a small fridge.VERY NICE for the price.Only thing I had concern / issue with was the fridge was EXTREMELY HOT when we arrived.  Needs to have a vent in the door or somewhere, as it seems to overheat, and therefore not keep the fridge cold.That and the usual issue with the wall mounted AC unit not keeping the room at the same temperature, did a decent job, but the lounge was a little warmer than closer to the bed.  Could be resolved with a wall mounted thermostat.Overall I was EXTREMELY impressed with this hotel.  I will be looking at Comfort Suites in a different light from now on.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r164968707-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>164968707</t>
+  </si>
+  <si>
+    <t>06/23/2013</t>
+  </si>
+  <si>
+    <t>Home away from home</t>
+  </si>
+  <si>
+    <t>I recently worked on a project in Spring which required me to travel two nights a week for 4 months and I stayed here for the duration of my job. The location is great. The property itself felt new even though it has been around for a few years. Any problems I had (which were few and minor) were taken care of immediately. I was even able to secure a great rate because of my regular stays. Rooms were always in great shape. Breakfast was just what you would expect, that is too say, nothing fancy, but enough quality and variety to satisfy. Thanks to Jason and his staff for making Comfort Suites my home away from home for 4 months. I'd recommend this property to anyone and everyone needing a place to stay in the north Houston area.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>I recently worked on a project in Spring which required me to travel two nights a week for 4 months and I stayed here for the duration of my job. The location is great. The property itself felt new even though it has been around for a few years. Any problems I had (which were few and minor) were taken care of immediately. I was even able to secure a great rate because of my regular stays. Rooms were always in great shape. Breakfast was just what you would expect, that is too say, nothing fancy, but enough quality and variety to satisfy. Thanks to Jason and his staff for making Comfort Suites my home away from home for 4 months. I'd recommend this property to anyone and everyone needing a place to stay in the north Houston area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r163426985-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>163426985</t>
+  </si>
+  <si>
+    <t>06/09/2013</t>
+  </si>
+  <si>
+    <t>Warm refrigerator, helpful clerk</t>
+  </si>
+  <si>
+    <t>I was spending 3 weeks visiting my son, daughter-in-law and grandson.  After a week, I needed a little quiet and space, so I searched for a close, affordable hotel, preferably with a microwave and refrigerator.  I reserved a suite, thinking they were the only rooms with the microwave and fridge, which I later found was wrong.  I brought food with me.  First, the fridge froze nearly everything, what managed to survive the freeze, later was ruined because the fridge went to hot, as it defrosted.  Basically, I lost all the food I brought.  When I complained to the front desk, the clerk on duty was very helpful (sorry I forget his name).  He sent up assistance and credited my bill $20 for the two night stay.  The room was more than spacious, which was great cause an emergency came up and my 1 yr old grandson had to spend the day with me!  The room was quiet, which was very important to me.  Breakfast was the basics.  I will definitely return again...maybe without the food this time.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>I was spending 3 weeks visiting my son, daughter-in-law and grandson.  After a week, I needed a little quiet and space, so I searched for a close, affordable hotel, preferably with a microwave and refrigerator.  I reserved a suite, thinking they were the only rooms with the microwave and fridge, which I later found was wrong.  I brought food with me.  First, the fridge froze nearly everything, what managed to survive the freeze, later was ruined because the fridge went to hot, as it defrosted.  Basically, I lost all the food I brought.  When I complained to the front desk, the clerk on duty was very helpful (sorry I forget his name).  He sent up assistance and credited my bill $20 for the two night stay.  The room was more than spacious, which was great cause an emergency came up and my 1 yr old grandson had to spend the day with me!  The room was quiet, which was very important to me.  Breakfast was the basics.  I will definitely return again...maybe without the food this time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r142417208-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>142417208</t>
+  </si>
+  <si>
+    <t>10/09/2012</t>
+  </si>
+  <si>
+    <t>Superb Front Desk Staff.</t>
+  </si>
+  <si>
+    <t>In town for a the college softball classic.  Always stay at Choice Privilege Hotels, made last minute reservations because wasn't sure of what part of the city was close proximity to ballfields.  Location was excellent.  Room was clean with plenty of space, but the best part of this property was the staff.  Miss Lynn assisted us with check-in, and she was sincerely one of the nicest people I've ever encountered.  Truly a nice person.  The lady that checked us out was equally as friendly, but she was busy.  Would definetely stay here again if visiting the area.  We chase softball and stay in several hotels throughout the year and this is one of the best Comfort Suites we have stayed.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>TexasHospitality101, Owner at Comfort Suites, responded to this reviewResponded October 10, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 10, 2012</t>
+  </si>
+  <si>
+    <t>In town for a the college softball classic.  Always stay at Choice Privilege Hotels, made last minute reservations because wasn't sure of what part of the city was close proximity to ballfields.  Location was excellent.  Room was clean with plenty of space, but the best part of this property was the staff.  Miss Lynn assisted us with check-in, and she was sincerely one of the nicest people I've ever encountered.  Truly a nice person.  The lady that checked us out was equally as friendly, but she was busy.  Would definetely stay here again if visiting the area.  We chase softball and stay in several hotels throughout the year and this is one of the best Comfort Suites we have stayed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r141380824-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>141380824</t>
+  </si>
+  <si>
+    <t>09/26/2012</t>
+  </si>
+  <si>
+    <t>Ants in the bed!!!</t>
+  </si>
+  <si>
+    <t>Our bed was covered in Ants.  I didnt notice until I was bitten.  I called the front desk repeatedly, no answer.  I went to the Lobby in my PJs and a housekeeper was attempting to run the front desk.  No manager on site!!!   Jasmine didnt know how to give me another room nor did she know how to give a refund.  I contacted corporate all they said is sorry.... Dont waste your time or money at this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>p2sh_EXCLAMATIONMARK, Owner at Comfort Suites, responded to this reviewResponded October 1, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 1, 2012</t>
+  </si>
+  <si>
+    <t>Our bed was covered in Ants.  I didnt notice until I was bitten.  I called the front desk repeatedly, no answer.  I went to the Lobby in my PJs and a housekeeper was attempting to run the front desk.  No manager on site!!!   Jasmine didnt know how to give me another room nor did she know how to give a refund.  I contacted corporate all they said is sorry.... Dont waste your time or money at this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r138455839-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>138455839</t>
+  </si>
+  <si>
+    <t>08/26/2012</t>
+  </si>
+  <si>
+    <t>Only for work. But may be back for leisure in the winter (winter bird)</t>
+  </si>
+  <si>
+    <t>Useful tip. This place is one of the MOST conveniently located hotels/motels around. Getting to and from the airport was a breeze via a "toll road" that the helpful front desk person showed me. I think his name was Jason(?). I tried to get in again this week, but they were sold out. Must be doing something right if people keep coming back(?) Anyway, staff was very helpful, hotel was very clean and smelt great, decor was pleasant and modern and breakfast was ok, but it was included and free unlike where I have to stay this week. They are making me pay for the breakfast AND wireless. Thank you Comfort Suites, I have learnt my lesson.. I will book earlier next time.Also, they are close to one of the wedding venues where my cousin will be getting married in October/November this year. I will be back ..(and BOOK EARLY). :-)MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>Useful tip. This place is one of the MOST conveniently located hotels/motels around. Getting to and from the airport was a breeze via a "toll road" that the helpful front desk person showed me. I think his name was Jason(?). I tried to get in again this week, but they were sold out. Must be doing something right if people keep coming back(?) Anyway, staff was very helpful, hotel was very clean and smelt great, decor was pleasant and modern and breakfast was ok, but it was included and free unlike where I have to stay this week. They are making me pay for the breakfast AND wireless. Thank you Comfort Suites, I have learnt my lesson.. I will book earlier next time.Also, they are close to one of the wedding venues where my cousin will be getting married in October/November this year. I will be back ..(and BOOK EARLY). :-)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r124405208-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>124405208</t>
+  </si>
+  <si>
+    <t>02/10/2012</t>
+  </si>
+  <si>
+    <t>Very Clean - Very Nice</t>
+  </si>
+  <si>
+    <t>Hotel boast a good location in North Houston Area on 45.The staff was freindly and helpful, the rooms spacious and quiet, modern flatscreen tvs with good cable access and speedy internet.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>Hotel boast a good location in North Houston Area on 45.The staff was freindly and helpful, the rooms spacious and quiet, modern flatscreen tvs with good cable access and speedy internet.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r118157292-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>118157292</t>
+  </si>
+  <si>
+    <t>09/15/2011</t>
+  </si>
+  <si>
+    <t>Convenient clean, property</t>
+  </si>
+  <si>
+    <t>A nice place, nothing fancy.  Breakfast a little dull.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r114658723-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>114658723</t>
+  </si>
+  <si>
+    <t>06/22/2011</t>
+  </si>
+  <si>
+    <t>Great place to stay!</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel when on business at our home office in Spring.  The staff has always been courteous.  The room has always been very clean and the bed comfortable.  I have stayed at other hotels in the area, but this one is best by far.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r102696955-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>102696955</t>
+  </si>
+  <si>
+    <t>04/03/2011</t>
+  </si>
+  <si>
+    <t>Everything great, but very noisy</t>
+  </si>
+  <si>
+    <t>Hotel rooms are nice and clean and liked free wifi, but there is virtually no soundproofing. We could hear conversations in the room next to us, people walking above us, and room doors closing loudly.  Consequently, we never had a good night of sleep.</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r90614299-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>90614299</t>
+  </si>
+  <si>
+    <t>12/24/2010</t>
+  </si>
+  <si>
+    <t>Good Hotel</t>
+  </si>
+  <si>
+    <t>Stayed for 10 Days excellent. The rooms are big well maintained and cleanThe morning breakfast was great lots of choice.The staff were excellent . Nice pool at the side and a hot spa as well</t>
+  </si>
+  <si>
+    <t>November 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r65433247-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>65433247</t>
+  </si>
+  <si>
+    <t>05/26/2010</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>Good location just off the Interstate.  Nice new property, comfortable bed, good breakfast, no issues.  Good strong internet</t>
+  </si>
+  <si>
+    <t>May 2010</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1660,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1692,3312 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>70</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>82</v>
+      </c>
+      <c r="O7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8" t="s">
+        <v>88</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>89</v>
+      </c>
+      <c r="O8" t="s">
+        <v>90</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" t="s">
+        <v>94</v>
+      </c>
+      <c r="L9" t="s">
+        <v>95</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10" t="s">
+        <v>100</v>
+      </c>
+      <c r="L10" t="s">
+        <v>101</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>102</v>
+      </c>
+      <c r="O10" t="s">
+        <v>103</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>105</v>
+      </c>
+      <c r="J11" t="s">
+        <v>106</v>
+      </c>
+      <c r="K11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L11" t="s">
+        <v>108</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>109</v>
+      </c>
+      <c r="O11" t="s">
+        <v>90</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>110</v>
+      </c>
+      <c r="X11" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J12" t="s">
+        <v>115</v>
+      </c>
+      <c r="K12" t="s">
+        <v>116</v>
+      </c>
+      <c r="L12" t="s">
+        <v>117</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>118</v>
+      </c>
+      <c r="O12" t="s">
+        <v>90</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>119</v>
+      </c>
+      <c r="X12" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>123</v>
+      </c>
+      <c r="J13" t="s">
+        <v>124</v>
+      </c>
+      <c r="K13" t="s">
+        <v>125</v>
+      </c>
+      <c r="L13" t="s">
+        <v>126</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>127</v>
+      </c>
+      <c r="O13" t="s">
+        <v>90</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>128</v>
+      </c>
+      <c r="X13" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>131</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>132</v>
+      </c>
+      <c r="J14" t="s">
+        <v>133</v>
+      </c>
+      <c r="K14" t="s">
+        <v>134</v>
+      </c>
+      <c r="L14" t="s">
+        <v>135</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>136</v>
+      </c>
+      <c r="X14" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>139</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>140</v>
+      </c>
+      <c r="J15" t="s">
+        <v>141</v>
+      </c>
+      <c r="K15" t="s">
+        <v>142</v>
+      </c>
+      <c r="L15" t="s">
+        <v>143</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>144</v>
+      </c>
+      <c r="X15" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>147</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>148</v>
+      </c>
+      <c r="J16" t="s">
+        <v>149</v>
+      </c>
+      <c r="K16" t="s">
+        <v>150</v>
+      </c>
+      <c r="L16" t="s">
+        <v>151</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>152</v>
+      </c>
+      <c r="O16" t="s">
+        <v>90</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>153</v>
+      </c>
+      <c r="X16" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>156</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>157</v>
+      </c>
+      <c r="J17" t="s">
+        <v>158</v>
+      </c>
+      <c r="K17" t="s">
+        <v>159</v>
+      </c>
+      <c r="L17" t="s">
+        <v>160</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>161</v>
+      </c>
+      <c r="O17" t="s">
+        <v>90</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>162</v>
+      </c>
+      <c r="X17" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>165</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>166</v>
+      </c>
+      <c r="J18" t="s">
+        <v>167</v>
+      </c>
+      <c r="K18" t="s">
+        <v>168</v>
+      </c>
+      <c r="L18" t="s">
+        <v>169</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>170</v>
+      </c>
+      <c r="O18" t="s">
+        <v>83</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>171</v>
+      </c>
+      <c r="X18" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>174</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>175</v>
+      </c>
+      <c r="J19" t="s">
+        <v>176</v>
+      </c>
+      <c r="K19" t="s">
+        <v>177</v>
+      </c>
+      <c r="L19" t="s">
+        <v>178</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>179</v>
+      </c>
+      <c r="O19" t="s">
+        <v>90</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>180</v>
+      </c>
+      <c r="X19" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>183</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>184</v>
+      </c>
+      <c r="J20" t="s">
+        <v>185</v>
+      </c>
+      <c r="K20" t="s">
+        <v>186</v>
+      </c>
+      <c r="L20" t="s">
+        <v>187</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>179</v>
+      </c>
+      <c r="O20" t="s">
+        <v>90</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>188</v>
+      </c>
+      <c r="X20" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>191</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>192</v>
+      </c>
+      <c r="J21" t="s">
+        <v>193</v>
+      </c>
+      <c r="K21" t="s">
+        <v>194</v>
+      </c>
+      <c r="L21" t="s">
+        <v>195</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>196</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>197</v>
+      </c>
+      <c r="X21" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>200</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>201</v>
+      </c>
+      <c r="J22" t="s">
+        <v>202</v>
+      </c>
+      <c r="K22" t="s">
+        <v>203</v>
+      </c>
+      <c r="L22" t="s">
+        <v>204</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>196</v>
+      </c>
+      <c r="O22" t="s">
+        <v>90</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>205</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>206</v>
+      </c>
+      <c r="J23" t="s">
+        <v>207</v>
+      </c>
+      <c r="K23" t="s">
+        <v>208</v>
+      </c>
+      <c r="L23" t="s">
+        <v>209</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>210</v>
+      </c>
+      <c r="O23" t="s">
+        <v>90</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>211</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>212</v>
+      </c>
+      <c r="J24" t="s">
+        <v>207</v>
+      </c>
+      <c r="K24" t="s">
+        <v>213</v>
+      </c>
+      <c r="L24" t="s">
+        <v>214</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>210</v>
+      </c>
+      <c r="O24" t="s">
+        <v>90</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>216</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>217</v>
+      </c>
+      <c r="J25" t="s">
+        <v>218</v>
+      </c>
+      <c r="K25" t="s">
+        <v>219</v>
+      </c>
+      <c r="L25" t="s">
+        <v>220</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s"/>
+      <c r="O25" t="s"/>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>221</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>222</v>
+      </c>
+      <c r="J26" t="s">
+        <v>223</v>
+      </c>
+      <c r="K26" t="s">
+        <v>224</v>
+      </c>
+      <c r="L26" t="s">
+        <v>225</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>226</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>227</v>
+      </c>
+      <c r="X26" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>230</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>231</v>
+      </c>
+      <c r="J27" t="s">
+        <v>232</v>
+      </c>
+      <c r="K27" t="s">
+        <v>233</v>
+      </c>
+      <c r="L27" t="s">
+        <v>234</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>226</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>235</v>
+      </c>
+      <c r="X27" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>238</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>239</v>
+      </c>
+      <c r="J28" t="s">
+        <v>240</v>
+      </c>
+      <c r="K28" t="s">
+        <v>241</v>
+      </c>
+      <c r="L28" t="s">
+        <v>242</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>226</v>
+      </c>
+      <c r="O28" t="s">
+        <v>71</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>244</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>245</v>
+      </c>
+      <c r="J29" t="s">
+        <v>246</v>
+      </c>
+      <c r="K29" t="s">
+        <v>247</v>
+      </c>
+      <c r="L29" t="s">
+        <v>248</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>249</v>
+      </c>
+      <c r="O29" t="s">
+        <v>90</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>3</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>250</v>
+      </c>
+      <c r="X29" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>253</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>254</v>
+      </c>
+      <c r="J30" t="s">
+        <v>255</v>
+      </c>
+      <c r="K30" t="s">
+        <v>256</v>
+      </c>
+      <c r="L30" t="s">
+        <v>257</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>249</v>
+      </c>
+      <c r="O30" t="s">
+        <v>83</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>258</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>259</v>
+      </c>
+      <c r="J31" t="s">
+        <v>260</v>
+      </c>
+      <c r="K31" t="s">
+        <v>261</v>
+      </c>
+      <c r="L31" t="s">
+        <v>262</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s"/>
+      <c r="O31" t="s"/>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>250</v>
+      </c>
+      <c r="X31" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>264</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>265</v>
+      </c>
+      <c r="J32" t="s">
+        <v>266</v>
+      </c>
+      <c r="K32" t="s">
+        <v>267</v>
+      </c>
+      <c r="L32" t="s">
+        <v>268</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>269</v>
+      </c>
+      <c r="O32" t="s">
+        <v>90</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="n">
+        <v>3</v>
+      </c>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>271</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>272</v>
+      </c>
+      <c r="J33" t="s">
+        <v>273</v>
+      </c>
+      <c r="K33" t="s">
+        <v>274</v>
+      </c>
+      <c r="L33" t="s">
+        <v>275</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>269</v>
+      </c>
+      <c r="O33" t="s">
+        <v>90</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>277</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>278</v>
+      </c>
+      <c r="J34" t="s">
+        <v>279</v>
+      </c>
+      <c r="K34" t="s">
+        <v>280</v>
+      </c>
+      <c r="L34" t="s">
+        <v>281</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>282</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="n">
+        <v>3</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>3</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>283</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>284</v>
+      </c>
+      <c r="J35" t="s">
+        <v>285</v>
+      </c>
+      <c r="K35" t="s">
+        <v>286</v>
+      </c>
+      <c r="L35" t="s">
+        <v>287</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>288</v>
+      </c>
+      <c r="O35" t="s">
+        <v>71</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>289</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>290</v>
+      </c>
+      <c r="J36" t="s">
+        <v>291</v>
+      </c>
+      <c r="K36" t="s">
+        <v>292</v>
+      </c>
+      <c r="L36" t="s">
+        <v>293</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>288</v>
+      </c>
+      <c r="O36" t="s">
+        <v>90</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>294</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>295</v>
+      </c>
+      <c r="J37" t="s">
+        <v>296</v>
+      </c>
+      <c r="K37" t="s">
+        <v>297</v>
+      </c>
+      <c r="L37" t="s">
+        <v>298</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>299</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>300</v>
+      </c>
+      <c r="X37" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>303</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>304</v>
+      </c>
+      <c r="J38" t="s">
+        <v>305</v>
+      </c>
+      <c r="K38" t="s">
+        <v>306</v>
+      </c>
+      <c r="L38" t="s">
+        <v>307</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>308</v>
+      </c>
+      <c r="X38" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>311</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>312</v>
+      </c>
+      <c r="J39" t="s">
+        <v>313</v>
+      </c>
+      <c r="K39" t="s">
+        <v>314</v>
+      </c>
+      <c r="L39" t="s">
+        <v>315</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>316</v>
+      </c>
+      <c r="O39" t="s">
+        <v>90</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>317</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>318</v>
+      </c>
+      <c r="J40" t="s">
+        <v>319</v>
+      </c>
+      <c r="K40" t="s">
+        <v>320</v>
+      </c>
+      <c r="L40" t="s">
+        <v>321</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>316</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>322</v>
+      </c>
+      <c r="X40" t="s">
+        <v>323</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>325</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>326</v>
+      </c>
+      <c r="J41" t="s">
+        <v>327</v>
+      </c>
+      <c r="K41" t="s">
+        <v>328</v>
+      </c>
+      <c r="L41" t="s">
+        <v>329</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>330</v>
+      </c>
+      <c r="O41" t="s">
+        <v>71</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>331</v>
+      </c>
+      <c r="X41" t="s">
+        <v>332</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>334</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>335</v>
+      </c>
+      <c r="J42" t="s">
+        <v>336</v>
+      </c>
+      <c r="K42" t="s">
+        <v>337</v>
+      </c>
+      <c r="L42" t="s">
+        <v>338</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>339</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>341</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>342</v>
+      </c>
+      <c r="J43" t="s">
+        <v>343</v>
+      </c>
+      <c r="K43" t="s">
+        <v>344</v>
+      </c>
+      <c r="L43" t="s">
+        <v>345</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>346</v>
+      </c>
+      <c r="O43" t="s">
+        <v>90</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>331</v>
+      </c>
+      <c r="X43" t="s">
+        <v>332</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>348</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>349</v>
+      </c>
+      <c r="J44" t="s">
+        <v>350</v>
+      </c>
+      <c r="K44" t="s">
+        <v>351</v>
+      </c>
+      <c r="L44" t="s">
+        <v>352</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>353</v>
+      </c>
+      <c r="O44" t="s">
+        <v>90</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>354</v>
+      </c>
+      <c r="X44" t="s">
+        <v>355</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>357</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>358</v>
+      </c>
+      <c r="J45" t="s">
+        <v>359</v>
+      </c>
+      <c r="K45" t="s">
+        <v>360</v>
+      </c>
+      <c r="L45" t="s">
+        <v>361</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s"/>
+      <c r="O45" t="s"/>
+      <c r="P45" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1</v>
+      </c>
+      <c r="R45" t="n">
+        <v>2</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>1</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>362</v>
+      </c>
+      <c r="X45" t="s">
+        <v>363</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>365</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>366</v>
+      </c>
+      <c r="J46" t="s">
+        <v>367</v>
+      </c>
+      <c r="K46" t="s">
+        <v>368</v>
+      </c>
+      <c r="L46" t="s">
+        <v>369</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>370</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>362</v>
+      </c>
+      <c r="X46" t="s">
+        <v>363</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>372</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>373</v>
+      </c>
+      <c r="J47" t="s">
+        <v>374</v>
+      </c>
+      <c r="K47" t="s">
+        <v>375</v>
+      </c>
+      <c r="L47" t="s">
+        <v>376</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>377</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>362</v>
+      </c>
+      <c r="X47" t="s">
+        <v>363</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>379</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>380</v>
+      </c>
+      <c r="J48" t="s">
+        <v>381</v>
+      </c>
+      <c r="K48" t="s">
+        <v>382</v>
+      </c>
+      <c r="L48" t="s">
+        <v>383</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s"/>
+      <c r="O48" t="s"/>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>3</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>384</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>385</v>
+      </c>
+      <c r="J49" t="s">
+        <v>386</v>
+      </c>
+      <c r="K49" t="s">
+        <v>387</v>
+      </c>
+      <c r="L49" t="s">
+        <v>388</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s"/>
+      <c r="O49" t="s"/>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>389</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>390</v>
+      </c>
+      <c r="J50" t="s">
+        <v>391</v>
+      </c>
+      <c r="K50" t="s">
+        <v>392</v>
+      </c>
+      <c r="L50" t="s">
+        <v>393</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>394</v>
+      </c>
+      <c r="O50" t="s">
+        <v>71</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>395</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>396</v>
+      </c>
+      <c r="J51" t="s">
+        <v>397</v>
+      </c>
+      <c r="K51" t="s">
+        <v>398</v>
+      </c>
+      <c r="L51" t="s">
+        <v>399</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>400</v>
+      </c>
+      <c r="O51" t="s">
+        <v>71</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>401</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>402</v>
+      </c>
+      <c r="J52" t="s">
+        <v>403</v>
+      </c>
+      <c r="K52" t="s">
+        <v>404</v>
+      </c>
+      <c r="L52" t="s">
+        <v>405</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>406</v>
+      </c>
+      <c r="O52" t="s">
+        <v>71</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>405</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_126.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_126.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="633">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,57 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/06/2018</t>
+    <t>09/03/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r600908547-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>56701</t>
+  </si>
+  <si>
+    <t>1478088</t>
+  </si>
+  <si>
+    <t>600908547</t>
+  </si>
+  <si>
+    <t>07/29/2018</t>
+  </si>
+  <si>
+    <t>Pleasant stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Staff was very friendly, everything was very clean, and breakfast was nice. Next door to Insprire Rock and close to so many other places we were interested in seeing. Would definitely stay here again. </t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r591042779-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>591042779</t>
+  </si>
+  <si>
+    <t>06/26/2018</t>
+  </si>
+  <si>
+    <t>Clean rooms</t>
+  </si>
+  <si>
+    <t>We stayed here because there were few choices for us at the time.  The room was clean when we arrived and it was cleaned every day to my wife’s satisfaction.  All of the staff were were efficient and friendly.  What more could you ask?  FasterWiFi would be nice but we got by.</t>
+  </si>
+  <si>
+    <t>June 2018</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r584913127-Comfort_Suites-Spring_Texas.html</t>
   </si>
   <si>
-    <t>56701</t>
-  </si>
-  <si>
-    <t>1478088</t>
-  </si>
-  <si>
     <t>584913127</t>
   </si>
   <si>
@@ -213,6 +252,48 @@
     <t>This was a great location for me, just off of I-45 N,  and a whole group of people attending a surprise party.  The staff was friendly and accommodating.  The breakfast was very good, but I wish the breakfast area was a little larger.  Maybe it's because we were there on a weekend.  I would recommend this hotel.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r548461473-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>548461473</t>
+  </si>
+  <si>
+    <t>12/21/2017</t>
+  </si>
+  <si>
+    <t>They're trying</t>
+  </si>
+  <si>
+    <t>I could tell that the room was recently or at least semi-recently renovated which was nice, but it was incredibly dark in the room itself which was a bit frustrating. There was only so much light from the lamps provided and the room never got bright, even on a sunny day, when I would have preferred to not need any lamps on at all. The hotel was also incredibly noisy at night which made the updates in the room less important when one could hear the neighbor's television going or a door slamming. I was thankful we were only staying for two nights.The front desk staff was very accommodating and friendly. The breakfast staff was never anywhere to be seen and the breakfast choices were lacking, even compared to other Comfort Suites across the country.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>I could tell that the room was recently or at least semi-recently renovated which was nice, but it was incredibly dark in the room itself which was a bit frustrating. There was only so much light from the lamps provided and the room never got bright, even on a sunny day, when I would have preferred to not need any lamps on at all. The hotel was also incredibly noisy at night which made the updates in the room less important when one could hear the neighbor's television going or a door slamming. I was thankful we were only staying for two nights.The front desk staff was very accommodating and friendly. The breakfast staff was never anywhere to be seen and the breakfast choices were lacking, even compared to other Comfort Suites across the country.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r528608345-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>528608345</t>
+  </si>
+  <si>
+    <t>09/30/2017</t>
+  </si>
+  <si>
+    <t>Nice rooms but...</t>
+  </si>
+  <si>
+    <t>The rooms were clean and nice. We have no complaints about the rooms.  The road noise is a little much but that's not the hotels fault. Breakfast, despite telling us there would be a hot breakfast on booking, is only a continental breakfast.  Not a horrible problem but notable.  The problem for us, and the reason we will not stay here again, is the internet.  The internet is basically unusable.  I'm writing this from our room on LTE using up my data. We do not watch standard TV, we watch the internet. We are cord cutters so we are heavy internet users. No YouTube, no Netflix, no downloading podcasts.  No downloading books from overdrive and the library.  Bummer. If they fix this, we would definitely be back, but we will never know. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>The rooms were clean and nice. We have no complaints about the rooms.  The road noise is a little much but that's not the hotels fault. Breakfast, despite telling us there would be a hot breakfast on booking, is only a continental breakfast.  Not a horrible problem but notable.  The problem for us, and the reason we will not stay here again, is the internet.  The internet is basically unusable.  I'm writing this from our room on LTE using up my data. We do not watch standard TV, we watch the internet. We are cord cutters so we are heavy internet users. No YouTube, no Netflix, no downloading podcasts.  No downloading books from overdrive and the library.  Bummer. If they fix this, we would definitely be back, but we will never know. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r523593945-Comfort_Suites-Spring_Texas.html</t>
   </si>
   <si>
@@ -270,6 +351,42 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r481351561-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>481351561</t>
+  </si>
+  <si>
+    <t>05/03/2017</t>
+  </si>
+  <si>
+    <t>Bad customer service</t>
+  </si>
+  <si>
+    <t>Making reservations through Hotels.com, You should be aware of the gimmick of offering a very good rate without placing the NON REFUNDABLE clause on the first &amp; main page but at the end only after you decide to reserve. Therefore, if you are not very cautious, you are booked and then and only when you realize they confirmed your booking via email , you are hooked. I tried to changed to a refundable one half an hour after reserved and it was denied ever if your willing to increase the daily rate.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r479778335-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>479778335</t>
+  </si>
+  <si>
+    <t>04/28/2017</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hotel is good, price and service are corresponding. Rooms are big and very comfortable. There is swimming pool and gym, but was currently out of order. Breakfast so so, very simple and everyday all the same. But in general nice. </t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r462045391-Comfort_Suites-Spring_Texas.html</t>
   </si>
   <si>
@@ -286,9 +403,6 @@
   </si>
   <si>
     <t>February 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r456163764-Comfort_Suites-Spring_Texas.html</t>
@@ -338,6 +452,57 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r426968195-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>426968195</t>
+  </si>
+  <si>
+    <t>10/11/2016</t>
+  </si>
+  <si>
+    <t>Great Night Stay</t>
+  </si>
+  <si>
+    <t>Comfortable, clean large rooms made for a nice stay. Hotel is reasonably new. Free parking outside and a good morning breakfast. Old Town Spring is a couple of mins drive away. Rudys BBQ is just out the back of the property....great BBQ. would stay again. MoreShow less</t>
+  </si>
+  <si>
+    <t>gwendysuethurman, Guest Relations Manager at Comfort Suites, responded to this reviewResponded October 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 12, 2016</t>
+  </si>
+  <si>
+    <t>Comfortable, clean large rooms made for a nice stay. Hotel is reasonably new. Free parking outside and a good morning breakfast. Old Town Spring is a couple of mins drive away. Rudys BBQ is just out the back of the property....great BBQ. would stay again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r422816137-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>422816137</t>
+  </si>
+  <si>
+    <t>09/27/2016</t>
+  </si>
+  <si>
+    <t>Great hotel, would stay again</t>
+  </si>
+  <si>
+    <t>Beds were very comfortable, shower was hot and strong, plenty of outlets and USB ports for charging electronics, delicious Texas shaped waffles included in the free breakfast, clean and felt safe for two women and child. Check in and check out were both a breeze. Very good value. No complaints.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>gwendysuethurman, Guest Relations Manager at Comfort Suites, responded to this reviewResponded September 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 28, 2016</t>
+  </si>
+  <si>
+    <t>Beds were very comfortable, shower was hot and strong, plenty of outlets and USB ports for charging electronics, delicious Texas shaped waffles included in the free breakfast, clean and felt safe for two women and child. Check in and check out were both a breeze. Very good value. No complaints.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r421415361-Comfort_Suites-Spring_Texas.html</t>
   </si>
   <si>
@@ -419,6 +584,45 @@
     <t>We have stayed at other Comfort Suites elsewhere, as the 2 bed + sofa bed configuration works well for our family.  Usually we are quite pleased by this chain, but this location was disappointing.  The pool was itty bitty and CLOSED while we were there, and our room was tired.  The layout was typical, and the regular beds were fine, but the fabric on the sofa was grimy, and the fold-out bed was really uncomfortable.  When I tried to print our boarding passes in the business center, the printer would not work.  The front desk employee was very earnestly trying to help me, but she could not get it to print, either.  Overall, things at this Comfort Suites were just not up to our expectation for this chain.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r393362110-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>393362110</t>
+  </si>
+  <si>
+    <t>07/16/2016</t>
+  </si>
+  <si>
+    <t>Abusive front desk personnel</t>
+  </si>
+  <si>
+    <t>The woman working the front desk made fun of a woman in a wheelchair and her service dog. I have never seen such disgusting behavior from a hotel employee in my life. I don't know what the outcome will be but it looked like the group she was with was asking to talk to a manager.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r389229998-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>389229998</t>
+  </si>
+  <si>
+    <t>07/04/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Family fun </t>
+  </si>
+  <si>
+    <t>The hotel was awesome , very nice,  rooms are big and clean, our stay at comfort  suites was very nice, I would go back again, the pool and jacuzzi, was clean and enjoyable, front desk was really nice and helpfulMoreShow less</t>
+  </si>
+  <si>
+    <t>gwendysuethurman, Guest Relations Manager at Comfort Suites, responded to this reviewResponded July 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 5, 2016</t>
+  </si>
+  <si>
+    <t>The hotel was awesome , very nice,  rooms are big and clean, our stay at comfort  suites was very nice, I would go back again, the pool and jacuzzi, was clean and enjoyable, front desk was really nice and helpfulMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r388081913-Comfort_Suites-Spring_Texas.html</t>
   </si>
   <si>
@@ -434,12 +638,6 @@
     <t>I always stay here when I'm in Houston for business. The front desk personnel are friendly and the check in process is always quick and hassle free. The continental breakfast is good for starting your day off. This hotel is located strategically by many fun things to do, like Splashtown, golfing, and shopping. MoreShow less</t>
   </si>
   <si>
-    <t>gwendysuethurman, Guest Relations Manager at Comfort Suites, responded to this reviewResponded July 5, 2016</t>
-  </si>
-  <si>
-    <t>Responded July 5, 2016</t>
-  </si>
-  <si>
     <t>I always stay here when I'm in Houston for business. The front desk personnel are friendly and the check in process is always quick and hassle free. The continental breakfast is good for starting your day off. This hotel is located strategically by many fun things to do, like Splashtown, golfing, and shopping. More</t>
   </si>
   <si>
@@ -494,6 +692,60 @@
     <t>This inexpensive motel was very friendly, clean, and convenient. They had a great breakfast. A USA today paper every day. Great room service. They even gave me a late checkout time. I will use Comfort Suites again in the future.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r366180659-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>366180659</t>
+  </si>
+  <si>
+    <t>04/21/2016</t>
+  </si>
+  <si>
+    <t>Clean, friendly, comfy</t>
+  </si>
+  <si>
+    <t>I'm very impressed with this Comfort Suites. Front desk personnel was super friendly, room was VERY clean, beds are comfortable, good selection for breakfast. Easy to find as it's located very close to the highway, but not on the service road so it's not noisy.  Overall an excellent place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>gwendysuethurman, Guest Relations Manager at Comfort Suites, responded to this reviewResponded April 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 22, 2016</t>
+  </si>
+  <si>
+    <t>I'm very impressed with this Comfort Suites. Front desk personnel was super friendly, room was VERY clean, beds are comfortable, good selection for breakfast. Easy to find as it's located very close to the highway, but not on the service road so it's not noisy.  Overall an excellent place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r359484426-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>359484426</t>
+  </si>
+  <si>
+    <t>03/28/2016</t>
+  </si>
+  <si>
+    <t>Easter 2016</t>
+  </si>
+  <si>
+    <t>Great location. Walking distance to shopping mall and restaurants. Rooms/Suites were spacious and clean. 2 sofa beds and 2 televisions. Micro/Fridge. Nice HOT breakfast! Pantry in lobby. Nice area. Modern updated restroom. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>gwendysuethurman, Guest Relations Manager at Comfort Suites, responded to this reviewResponded April 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 5, 2016</t>
+  </si>
+  <si>
+    <t>Great location. Walking distance to shopping mall and restaurants. Rooms/Suites were spacious and clean. 2 sofa beds and 2 televisions. Micro/Fridge. Nice HOT breakfast! Pantry in lobby. Nice area. Modern updated restroom. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r354919375-Comfort_Suites-Spring_Texas.html</t>
   </si>
   <si>
@@ -509,9 +761,6 @@
     <t>Great staff! Great knowledge of area &amp; friendly. Nice room. Beds in my room will need replaced in the near future. Hot tub was cold. Close to walmart ,chickfila &amp; Ross. Nice fitness area. Would stay again.MoreShow less</t>
   </si>
   <si>
-    <t>March 2016</t>
-  </si>
-  <si>
     <t>gwendysuethurman, Guest Relations Manager at Comfort Suites, responded to this reviewResponded March 14, 2016</t>
   </si>
   <si>
@@ -575,6 +824,57 @@
     <t>We spent just one night in this hotel and chose it for it's close location to Spring.  Driving in from the airport we could tell the weather was going to get worse, and we weren't wrong.  The hotel itself was a typical Comfort Suites, although it felt small with just two of us in the room.  Amenities were adequate: coffee maker in the room, bath sundries, comfy and clean bed, OK TV, good wifi and free breakfast.But during the night the power went out and stayed out for most of our stay, causing us to miss breakfast (cereal milk stayed cold and coffee stayed hot during power-out).The weather was obviously out of the hotel's control, but I can compliment them for reacting well to those who wandered down early in the morning looking for a wake-up juice or coffee.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r338218043-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>338218043</t>
+  </si>
+  <si>
+    <t>01/07/2016</t>
+  </si>
+  <si>
+    <t>Comfort Suites (Vantrille Patterson)</t>
+  </si>
+  <si>
+    <t>My family and I experienced a great loss during the Christmas holiday. We were blessed with the opportunity to visit the Comfort Suites. Our experience at this hotel was very refreshing. All of the associates were wonderful and very helpful. Upon learning of our loss, the associates comforted us and gave us very helpful resources.  The front desk staff, Andrea, Kim and Tracy are awesome. They are very professional people with big hearts. The hotel is very clean and the housekeeping staff makes sure that you have everything you need. There is complimentary breakfast every morning, free wifi and a business center. There is a strip mall directly accross the street. There is Wal-Mart, Ross, Dollar Tree and even a water park directly behind it. I highly recommend this hotel and if needed would stay here again. Thanks Comfort Suites Spring. You are amazing! God Bless.MoreShow less</t>
+  </si>
+  <si>
+    <t>gwendysuethurman, Guest Relations Manager at Comfort Suites, responded to this reviewResponded January 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 11, 2016</t>
+  </si>
+  <si>
+    <t>My family and I experienced a great loss during the Christmas holiday. We were blessed with the opportunity to visit the Comfort Suites. Our experience at this hotel was very refreshing. All of the associates were wonderful and very helpful. Upon learning of our loss, the associates comforted us and gave us very helpful resources.  The front desk staff, Andrea, Kim and Tracy are awesome. They are very professional people with big hearts. The hotel is very clean and the housekeeping staff makes sure that you have everything you need. There is complimentary breakfast every morning, free wifi and a business center. There is a strip mall directly accross the street. There is Wal-Mart, Ross, Dollar Tree and even a water park directly behind it. I highly recommend this hotel and if needed would stay here again. Thanks Comfort Suites Spring. You are amazing! God Bless.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r335774226-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>335774226</t>
+  </si>
+  <si>
+    <t>12/29/2015</t>
+  </si>
+  <si>
+    <t>Good Standard Comfort Suites Property</t>
+  </si>
+  <si>
+    <t>This Comfort Suites is relatively new, clean and well run.  I had a meeting in The Woodlands and ended up here due to an increasingly all too frequent sell out of most of hotels in The Woodlands.  Not a bad thing.  The staff set out some snacks at happy hour and the free breakfast was decent.  The room itself obviously wasn't luxury, but new enough that "almost" everything worked.  My desk chair was broken and shame on me, I didn't report it the next day.  :-)  East Louetta is VERY busy at the entrance to this hotel and I45 is within eyeshot, so you will hear traffic and road noise regardless of which side you stay on.  This is a decent serviceable property that I would stay in again if need be.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>gwendysuethurman, Guest Relations Manager at Comfort Suites, responded to this reviewResponded January 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 1, 2016</t>
+  </si>
+  <si>
+    <t>This Comfort Suites is relatively new, clean and well run.  I had a meeting in The Woodlands and ended up here due to an increasingly all too frequent sell out of most of hotels in The Woodlands.  Not a bad thing.  The staff set out some snacks at happy hour and the free breakfast was decent.  The room itself obviously wasn't luxury, but new enough that "almost" everything worked.  My desk chair was broken and shame on me, I didn't report it the next day.  :-)  East Louetta is VERY busy at the entrance to this hotel and I45 is within eyeshot, so you will hear traffic and road noise regardless of which side you stay on.  This is a decent serviceable property that I would stay in again if need be.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r327043876-Comfort_Suites-Spring_Texas.html</t>
   </si>
   <si>
@@ -641,6 +941,42 @@
     <t>We stayed three nights and found the hotel to be very accommodating;  We had issues with a noisy neighbor who played a loud television all night.  Management did all that they could to solve that problem.  The manager Jason Headly was a caring individual who listened;</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r303110242-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>303110242</t>
+  </si>
+  <si>
+    <t>08/24/2015</t>
+  </si>
+  <si>
+    <t>Excellent!</t>
+  </si>
+  <si>
+    <t>From the moment I called this hotel, Andrea from the front desk was very friendly!! She accidentally gave us a room with the lights not working and fixed the issue QUICKLY by putting us in another room! Very friendly person, I recommend her to anyone! And the hotel stay here was excellent! MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>From the moment I called this hotel, Andrea from the front desk was very friendly!! She accidentally gave us a room with the lights not working and fixed the issue QUICKLY by putting us in another room! Very friendly person, I recommend her to anyone! And the hotel stay here was excellent! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r303048356-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>303048356</t>
+  </si>
+  <si>
+    <t>Rush Cup Soccer</t>
+  </si>
+  <si>
+    <t>The hotel was nice, clean, incredible staff.  Miss Andrea Johnson was OVER THE TOP incredible during our stay.  Not only was she professional, engaging and kind.......she washed an entire team of the dirtiest of the dirty soccer uniforms the night before our championship tournament so our boys could look as great as they played.  We had rain and our boys were literally rolling around in a mud pit.  To say she saved us is an understatement.  For that reason alone.....I would stay at that hotel again and definitely recommend to many others.  Customer service, ABOVE and BEYOND!MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel was nice, clean, incredible staff.  Miss Andrea Johnson was OVER THE TOP incredible during our stay.  Not only was she professional, engaging and kind.......she washed an entire team of the dirtiest of the dirty soccer uniforms the night before our championship tournament so our boys could look as great as they played.  We had rain and our boys were literally rolling around in a mud pit.  To say she saved us is an understatement.  For that reason alone.....I would stay at that hotel again and definitely recommend to many others.  Customer service, ABOVE and BEYOND!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r302290785-Comfort_Suites-Spring_Texas.html</t>
   </si>
   <si>
@@ -656,9 +992,6 @@
     <t xml:space="preserve">Stayed here with a soccer tournament.  Andrea at the front desk was so nice. Really helped our team get their muddy jerseys taken care of.  We were SO APPRECIATIVE. The rooms are great for the price point and the beds were very good.  Will stay here again for future Houston tournaments. </t>
   </si>
   <si>
-    <t>August 2015</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r302056748-Comfort_Suites-Spring_Texas.html</t>
   </si>
   <si>
@@ -687,6 +1020,39 @@
   </si>
   <si>
     <t>The room was spacious, clean and quiet. We were there for a week.  The staff was very friendly and helpful! The price was definitely worth the whole experience.  The only suggestion would be to have a different selection for breakfast. I would like to specifically mention Andrea Johnson by name. She works at the front desk, and  I had opportunity to witness her great positive attitude and professionalism dealing with customers as I waited in the lobby a few times for extended periods for friends.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r294997784-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>294997784</t>
+  </si>
+  <si>
+    <t>08/02/2015</t>
+  </si>
+  <si>
+    <t>Company picnic</t>
+  </si>
+  <si>
+    <t>We were greeted by a really outstanding person named Andrea. She gave us excellent service by helping us with directions, recommending places to eat, and suggesting family fun activities that she thought we would enjoy. She treated us like family. The rooms were very clean and comfortable. We he'd a very nice, relaxing stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r285015988-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>285015988</t>
+  </si>
+  <si>
+    <t>07/02/2015</t>
+  </si>
+  <si>
+    <t>Conveniently located</t>
+  </si>
+  <si>
+    <t>We stayed in Houston for a couple of days to visit family and friends.The hotel was very conveniently located for all our visits and the neighborhood has a lot of stores and restaurants just across the street which was fantastic. It also has a great breakfast which got us started well into the day :)We are from Texas but live in Virginia, so we are missing the good southern food. Acroos the street there is a small Mexican bakery and we stocked up on terrific Tamales to take home.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r275702440-Comfort_Suites-Spring_Texas.html</t>
@@ -774,6 +1140,65 @@
     <t>My boyfriend and I stayed at this hotel on May 3rd, 2015 and overall the experience was just ok. Checking in took a long time and they didn't seem to know what they were looking at on the computer. The room itself was super beautiful and had great modern touches like the sink in the bathroom, a hidden fridge, huge closet, good TV channels, etc. There is free Wifi which is also an extra perk and they offer free breakfast from 6-9 on weekdays however we chose to dine out instead. There is a nice business center and fitness room but we did not use these. However the pool was closed which was a huge bummer as we looked super forward to swimming, and check in was at 3pm and check out at noon the next day with no option of late check out. For us personally it was a waste of OVER $100 for a room for less than 24 hours. I understand sometimes hotels get booked and want to make sure there is enough time for housekeeping, however if someone is paying over $100 a night I think you can extend check out by at least an hour. We have stayed at cheap motels and been offered better check out time options as a courtesy. The checking out process was also as long as the check in process. Overall it was a nice hotel but way overpriced and...My boyfriend and I stayed at this hotel on May 3rd, 2015 and overall the experience was just ok. Checking in took a long time and they didn't seem to know what they were looking at on the computer. The room itself was super beautiful and had great modern touches like the sink in the bathroom, a hidden fridge, huge closet, good TV channels, etc. There is free Wifi which is also an extra perk and they offer free breakfast from 6-9 on weekdays however we chose to dine out instead. There is a nice business center and fitness room but we did not use these. However the pool was closed which was a huge bummer as we looked super forward to swimming, and check in was at 3pm and check out at noon the next day with no option of late check out. For us personally it was a waste of OVER $100 for a room for less than 24 hours. I understand sometimes hotels get booked and want to make sure there is enough time for housekeeping, however if someone is paying over $100 a night I think you can extend check out by at least an hour. We have stayed at cheap motels and been offered better check out time options as a courtesy. The checking out process was also as long as the check in process. Overall it was a nice hotel but way overpriced and we would not stay here again or recommend to a friend.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r262514390-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>262514390</t>
+  </si>
+  <si>
+    <t>03/29/2015</t>
+  </si>
+  <si>
+    <t>Value for money at Comfort Suites, Spring</t>
+  </si>
+  <si>
+    <t>My husband and I spent Friday and Saturday night here while visiting Houston. Ample safe parking in front of the entrance, easy to get onto and from the freeway. The room was spacious and clean, the bed comfy with good quality linen. The dark furniture tend to make the room slightly gloomy. The shower was wonderfully warm the moment the tap opened and the room was very neatly serviced on the Saturday morning. The walls are very thin, so be prepared to hear the neighbours' television/ coughs/ any conversation slightly louder than a very quiet tone. We also missed not being able to open a window for fresh air, but maybe that is only a very South African trait! Great that there is ice and water taps with potable water available. Both staff members we encountered at Reception were very friendly and helpful, and the lady in the breakfast Room went out of her way to make everyone feel at home and well looked after during both our breakfasts there. The breakfast would have benefited greatly from some cream cheese, maybe? Still good value for money at the rate.MoreShow less</t>
+  </si>
+  <si>
+    <t>gwendysuethurman, Guest Relations Manager at Comfort Suites, responded to this reviewResponded April 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 6, 2015</t>
+  </si>
+  <si>
+    <t>My husband and I spent Friday and Saturday night here while visiting Houston. Ample safe parking in front of the entrance, easy to get onto and from the freeway. The room was spacious and clean, the bed comfy with good quality linen. The dark furniture tend to make the room slightly gloomy. The shower was wonderfully warm the moment the tap opened and the room was very neatly serviced on the Saturday morning. The walls are very thin, so be prepared to hear the neighbours' television/ coughs/ any conversation slightly louder than a very quiet tone. We also missed not being able to open a window for fresh air, but maybe that is only a very South African trait! Great that there is ice and water taps with potable water available. Both staff members we encountered at Reception were very friendly and helpful, and the lady in the breakfast Room went out of her way to make everyone feel at home and well looked after during both our breakfasts there. The breakfast would have benefited greatly from some cream cheese, maybe? Still good value for money at the rate.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r256378249-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>256378249</t>
+  </si>
+  <si>
+    <t>02/25/2015</t>
+  </si>
+  <si>
+    <t>This Place Needs Some Help</t>
+  </si>
+  <si>
+    <t>My wife and I stayed at the Comfort Suites, Spring TX, on Feb. 20-23 2015. We were joined by my brother-in-law and his wife. Let me start with what was good: 1) It was near our final destination 2) Beds were comfortable. (3) Bathrooms clean and up to date, with plenty of granite. (4) Breakfast (included) was adequate, although my wife thought the sausage made her sick. (5) Staff was friendly, but undermanned and powerless to resolve problems.
+Here's what was wrong:
+My brother-in-law and his wife found that in their third floor room, there was no hot water in the sink and the TV did not work. They were moved to the second floor, where the hot water worked but the but the TV did not.
+I was on the third floor, and hot water took a good  five to ten minutes to make its way to the sink. Also, fridge did not work. I complained but was told that there was no maintenance crew available on the weekend, so that was that. No chance of moving to another room. No  spare fridges. No effort whatever to "make things right" (e.g. a coupon for my next stay, etc.)
+Now it wasn't the desk person's fault. She has to do everything, from handling check-in, check-out, to overseeing the kitchen to mopping up. And has no power to  fix anything. It's the fault of the penny-pinching chain management that guts the...My wife and I stayed at the Comfort Suites, Spring TX, on Feb. 20-23 2015. We were joined by my brother-in-law and his wife. Let me start with what was good: 1) It was near our final destination 2) Beds were comfortable. (3) Bathrooms clean and up to date, with plenty of granite. (4) Breakfast (included) was adequate, although my wife thought the sausage made her sick. (5) Staff was friendly, but undermanned and powerless to resolve problems.Here's what was wrong:My brother-in-law and his wife found that in their third floor room, there was no hot water in the sink and the TV did not work. They were moved to the second floor, where the hot water worked but the but the TV did not.I was on the third floor, and hot water took a good  five to ten minutes to make its way to the sink. Also, fridge did not work. I complained but was told that there was no maintenance crew available on the weekend, so that was that. No chance of moving to another room. No  spare fridges. No effort whatever to "make things right" (e.g. a coupon for my next stay, etc.)Now it wasn't the desk person's fault. She has to do everything, from handling check-in, check-out, to overseeing the kitchen to mopping up. And has no power to  fix anything. It's the fault of the penny-pinching chain management that guts the service offering.And don't expect the computer in the "business center" to work either. It went offline on Saturday evening and was still off-line at mid-day Monday. And system would not allow my laptop to sign-in to the in-room Wi-Fi. (My wife had signed in her IPhone the day before I tried to sign-n my laptop, so all was not lost. But it wasn't a happy experience either).Conclusion: I'd have a hard time  recommending this place to a friend.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>SpringTx323, General Manager at Comfort Suites, responded to this reviewResponded April 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 14, 2015</t>
+  </si>
+  <si>
+    <t>My wife and I stayed at the Comfort Suites, Spring TX, on Feb. 20-23 2015. We were joined by my brother-in-law and his wife. Let me start with what was good: 1) It was near our final destination 2) Beds were comfortable. (3) Bathrooms clean and up to date, with plenty of granite. (4) Breakfast (included) was adequate, although my wife thought the sausage made her sick. (5) Staff was friendly, but undermanned and powerless to resolve problems.
+Here's what was wrong:
+My brother-in-law and his wife found that in their third floor room, there was no hot water in the sink and the TV did not work. They were moved to the second floor, where the hot water worked but the but the TV did not.
+I was on the third floor, and hot water took a good  five to ten minutes to make its way to the sink. Also, fridge did not work. I complained but was told that there was no maintenance crew available on the weekend, so that was that. No chance of moving to another room. No  spare fridges. No effort whatever to "make things right" (e.g. a coupon for my next stay, etc.)
+Now it wasn't the desk person's fault. She has to do everything, from handling check-in, check-out, to overseeing the kitchen to mopping up. And has no power to  fix anything. It's the fault of the penny-pinching chain management that guts the...My wife and I stayed at the Comfort Suites, Spring TX, on Feb. 20-23 2015. We were joined by my brother-in-law and his wife. Let me start with what was good: 1) It was near our final destination 2) Beds were comfortable. (3) Bathrooms clean and up to date, with plenty of granite. (4) Breakfast (included) was adequate, although my wife thought the sausage made her sick. (5) Staff was friendly, but undermanned and powerless to resolve problems.Here's what was wrong:My brother-in-law and his wife found that in their third floor room, there was no hot water in the sink and the TV did not work. They were moved to the second floor, where the hot water worked but the but the TV did not.I was on the third floor, and hot water took a good  five to ten minutes to make its way to the sink. Also, fridge did not work. I complained but was told that there was no maintenance crew available on the weekend, so that was that. No chance of moving to another room. No  spare fridges. No effort whatever to "make things right" (e.g. a coupon for my next stay, etc.)Now it wasn't the desk person's fault. She has to do everything, from handling check-in, check-out, to overseeing the kitchen to mopping up. And has no power to  fix anything. It's the fault of the penny-pinching chain management that guts the service offering.And don't expect the computer in the "business center" to work either. It went offline on Saturday evening and was still off-line at mid-day Monday. And system would not allow my laptop to sign-in to the in-room Wi-Fi. (My wife had signed in her IPhone the day before I tried to sign-n my laptop, so all was not lost. But it wasn't a happy experience either).Conclusion: I'd have a hard time  recommending this place to a friend.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r250714128-Comfort_Suites-Spring_Texas.html</t>
   </si>
   <si>
@@ -792,12 +1217,6 @@
     <t>January 2015</t>
   </si>
   <si>
-    <t>SpringTx323, General Manager at Comfort Suites, responded to this reviewResponded April 14, 2015</t>
-  </si>
-  <si>
-    <t>Responded April 14, 2015</t>
-  </si>
-  <si>
     <t>The title says it all. It is not upmarket. The room is clean with nice amenities. Our room was quiet. A friend stayed here and her room faced the main road. It was noisy and she had to switch rooms. Make sure you ask for a quiet room facing the back. Breakfast far exceeded expectations. If you are looking for a good nearby restaurant conside Rokku, really good Vietnamese food.More</t>
   </si>
   <si>
@@ -832,6 +1251,42 @@
   </si>
   <si>
     <t>This was one of the best hotels. The room layout was great, unique. I didn't like the bathroom sink but it was very modern. The room had a microwave, refrigerator and sofa. The USB ports with the extra outlets were wonderful! This hotel had a closet size store to purchase snacks, etc. also had vending machines. The bed was super comfortable felt as if it was inside a waterbed frame, lots of pillows even a card explaining firmness or soft pillows. The room booklet was very helpful which listed lots of valuable information for local places &amp; hotels. I used the laundry machines a $1 a load. There was a exercise room next door. Breakfast was the usual stuff consisting of eggs, sausage, lots of cereal, juice etc. The staff was friendly. I would stay there every time I went to Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r245251342-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>245251342</t>
+  </si>
+  <si>
+    <t>12/20/2014</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>We always stay here when we are on business in Spring Texas. They always have our reservation as promised. The folks who are the managers, Jason and Crystal,  run a good ship with a very pleasant atmosphere. The one thing that separates this from other hotels is the breakfast. You get real eggs, sausage and biscuits. The rooms are big and always clean. We stay at hotels all over the south and this one is our favorite.</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r244326376-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>244326376</t>
+  </si>
+  <si>
+    <t>12/13/2014</t>
+  </si>
+  <si>
+    <t>Not comfortable!</t>
+  </si>
+  <si>
+    <t>We stay at Comfort Inn Suites often, but we were disappointed with this one.  The walls are SO thin that we could hear the person next to us talking on the phone.  I don't think he was yelling either.  Then it was the TV, then he had visitors.  The beds weren't comfortable either.  The breakfast was poorly managed as well.  They were out of waffle mix for a long time, out of OJ the entire time we were down there, then ran out of water too.  People had to start stacking their trash on top of the trash bins because they were too full.  It was a disappointment.  However, I will compliment the staff.  Everyone was pleasant and happy.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stay at Comfort Inn Suites often, but we were disappointed with this one.  The walls are SO thin that we could hear the person next to us talking on the phone.  I don't think he was yelling either.  Then it was the TV, then he had visitors.  The beds weren't comfortable either.  The breakfast was poorly managed as well.  They were out of waffle mix for a long time, out of OJ the entire time we were down there, then ran out of water too.  People had to start stacking their trash on top of the trash bins because they were too full.  It was a disappointment.  However, I will compliment the staff.  Everyone was pleasant and happy.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r237674377-Comfort_Suites-Spring_Texas.html</t>
@@ -897,6 +1352,36 @@
     <t>September 2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r229858344-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>229858344</t>
+  </si>
+  <si>
+    <t>09/19/2014</t>
+  </si>
+  <si>
+    <t>Definitely one of the best Comfort Suites I've stayed in!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am an elite choice hotels member, and I've stayed at Comfort Suites all over the world... This is definitely down in my book as one of the top ten I've stayed as for cleanliness, politeness of staff and service and room comfort.  I really have little complaints, I concur that maybe there was some hallway noise, but let's be honest, If you're expecting a chamber of silence at any hotel, you're in for a real surprise everywhere.  Anyhow, I look forward to staying here again in the future! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r228825729-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>228825729</t>
+  </si>
+  <si>
+    <t>09/14/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comfortable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I had the MOST pleasant and comfortable stay here! The bed was like being at home! The breakfast was good and the service was outstanding! I recommend this hotel! The pillows were amazing also! Slept like a baby.....this location is also close to everything, food, shopping and attractions! </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r216360540-Comfort_Suites-Spring_Texas.html</t>
   </si>
   <si>
@@ -957,6 +1442,44 @@
     <t>The hotel was very clean and welcoming. The staff was friendly and very helpful. One room with a single king size bed was perfect! Great sizer room, clean and cozy. The hotel is centrally located to whatever you may need during your time in Spring, TX. I highly recommend.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r200141914-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>200141914</t>
+  </si>
+  <si>
+    <t>04/06/2014</t>
+  </si>
+  <si>
+    <t>Diet</t>
+  </si>
+  <si>
+    <t>The hotel appeared to be fairly new and very clean.  The room was very clean.  I thought we were going to have problems with the AC, as it was not cool at 70 and was not running.  Changing the fan speed off auto onto high did not result in any change in performance.  But after setting it on 65, it finally cooled the room all night long.  It certainly needed to be re-calibrated for temperature.  Our room faced Louetta, and the road traffic was very loud at times during the late Saturday night.  It was a suite, but the TV was near the bed, so anyone wanting to watch from the sofa was kinda out of luck, and certainly not at the same time.
+The real problem was the free breakfast.  It was a joke.  There was not enough for the number of folks staying there, plus the extras feeding as well.  The serving line was not well thought out as to the layout, as everyone was crowded at the entrance where the waffle maker was located.  So if you wanted the eggs and sausage, the line for the waffle maker was blocking access.  And they were letting people take food out to people in cars out front.  The appearance was that they were feeding more than just customers.  There was simply not enough food, the people were cutting in line, and we finally left as we were never going...The hotel appeared to be fairly new and very clean.  The room was very clean.  I thought we were going to have problems with the AC, as it was not cool at 70 and was not running.  Changing the fan speed off auto onto high did not result in any change in performance.  But after setting it on 65, it finally cooled the room all night long.  It certainly needed to be re-calibrated for temperature.  Our room faced Louetta, and the road traffic was very loud at times during the late Saturday night.  It was a suite, but the TV was near the bed, so anyone wanting to watch from the sofa was kinda out of luck, and certainly not at the same time.The real problem was the free breakfast.  It was a joke.  There was not enough for the number of folks staying there, plus the extras feeding as well.  The serving line was not well thought out as to the layout, as everyone was crowded at the entrance where the waffle maker was located.  So if you wanted the eggs and sausage, the line for the waffle maker was blocking access.  And they were letting people take food out to people in cars out front.  The appearance was that they were feeding more than just customers.  There was simply not enough food, the people were cutting in line, and we finally left as we were never going to get to the single waffle maker that was over taxed.  That was solidified when the young girl in front of us dropped her sausage on the floor, and then picked it up and dropped it on the utensil plate.  The heating unit for the eggs and sausage was never closed, and therefore all food items were probably cold.  As you can probably tell, there was a different clientelle for this hotel, many still running around in their PJ's.So even though the price was good compared to the competition, once you factored in the no breakfast and spent $20 at Denny's down the road, it was not such a good deal after all.Not sure I would go back, even though the cleanliness and closeness to family was very good.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>The hotel appeared to be fairly new and very clean.  The room was very clean.  I thought we were going to have problems with the AC, as it was not cool at 70 and was not running.  Changing the fan speed off auto onto high did not result in any change in performance.  But after setting it on 65, it finally cooled the room all night long.  It certainly needed to be re-calibrated for temperature.  Our room faced Louetta, and the road traffic was very loud at times during the late Saturday night.  It was a suite, but the TV was near the bed, so anyone wanting to watch from the sofa was kinda out of luck, and certainly not at the same time.
+The real problem was the free breakfast.  It was a joke.  There was not enough for the number of folks staying there, plus the extras feeding as well.  The serving line was not well thought out as to the layout, as everyone was crowded at the entrance where the waffle maker was located.  So if you wanted the eggs and sausage, the line for the waffle maker was blocking access.  And they were letting people take food out to people in cars out front.  The appearance was that they were feeding more than just customers.  There was simply not enough food, the people were cutting in line, and we finally left as we were never going...The hotel appeared to be fairly new and very clean.  The room was very clean.  I thought we were going to have problems with the AC, as it was not cool at 70 and was not running.  Changing the fan speed off auto onto high did not result in any change in performance.  But after setting it on 65, it finally cooled the room all night long.  It certainly needed to be re-calibrated for temperature.  Our room faced Louetta, and the road traffic was very loud at times during the late Saturday night.  It was a suite, but the TV was near the bed, so anyone wanting to watch from the sofa was kinda out of luck, and certainly not at the same time.The real problem was the free breakfast.  It was a joke.  There was not enough for the number of folks staying there, plus the extras feeding as well.  The serving line was not well thought out as to the layout, as everyone was crowded at the entrance where the waffle maker was located.  So if you wanted the eggs and sausage, the line for the waffle maker was blocking access.  And they were letting people take food out to people in cars out front.  The appearance was that they were feeding more than just customers.  There was simply not enough food, the people were cutting in line, and we finally left as we were never going to get to the single waffle maker that was over taxed.  That was solidified when the young girl in front of us dropped her sausage on the floor, and then picked it up and dropped it on the utensil plate.  The heating unit for the eggs and sausage was never closed, and therefore all food items were probably cold.  As you can probably tell, there was a different clientelle for this hotel, many still running around in their PJ's.So even though the price was good compared to the competition, once you factored in the no breakfast and spent $20 at Denny's down the road, it was not such a good deal after all.Not sure I would go back, even though the cleanliness and closeness to family was very good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r193761990-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>193761990</t>
+  </si>
+  <si>
+    <t>02/11/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great location! Excellent Stay! We'll be back' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">On a recent visit to our family, we were delighted to find a clean, comfortable, nice sized room. The beds are great!! As this was our first stay, we had nothing to compare it to, but the friendly, courteous staff met all of our needs---and then some. I highly recommend this property. We will definitely return! </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r192882989-Comfort_Suites-Spring_Texas.html</t>
   </si>
   <si>
@@ -1023,6 +1546,48 @@
     <t>Easily one of the best Choice branded hotels I've ever stayed at.  Hotel itself is new and roomy and in a great location for whatever you're doing on the north side of Houston or the Woodlands.  The rooms have plenty of outlets (even near the bed), nice TV and really good WI-FI.  Had a nice reception every night in the common area with snacks and drinks.  I didn't do the breakfast, but a quick walk through and it looked decent enough (just didn't have time).  The staff was super friendly and actually made you feel like they wanted you to be there.  Would highly recommend to anyone staying in the area.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r180713472-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>180713472</t>
+  </si>
+  <si>
+    <t>10/12/2013</t>
+  </si>
+  <si>
+    <t>Much more than expected</t>
+  </si>
+  <si>
+    <t>Front desk clerk was exceptional, very friendly and helpful even though we checked in at 11:30pm last night. Breakfast was great. Room was clean, well stocked. Refrigerator in room. Free wi-fi is nice. Great location. Would stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>jbh3577, Manager at Comfort Suites, responded to this reviewResponded October 14, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 14, 2013</t>
+  </si>
+  <si>
+    <t>Front desk clerk was exceptional, very friendly and helpful even though we checked in at 11:30pm last night. Breakfast was great. Room was clean, well stocked. Refrigerator in room. Free wi-fi is nice. Great location. Would stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r167779723-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>167779723</t>
+  </si>
+  <si>
+    <t>07/16/2013</t>
+  </si>
+  <si>
+    <t>Excellent Stay</t>
+  </si>
+  <si>
+    <t>I always check reviews before I stay anywhere!  This hotel had mostly good reviews so I went with it.  I was in town with 4 sixteen year old girls for a concert in The Woodlands.  I spent as much time as I could out of the room and in the lobby! I was able to the observe the front desk staff at work with many different guests.  They were exceptional, nice, professional, accommondating.  The room was clean and comfy and the breakfast was perfect.  The hotel itself is easily accessible and so is the wifi.  I would recommend this hotel to anyone I know traveling to the area.</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r165204446-Comfort_Suites-Spring_Texas.html</t>
   </si>
   <si>
@@ -1092,6 +1657,39 @@
     <t>I was spending 3 weeks visiting my son, daughter-in-law and grandson.  After a week, I needed a little quiet and space, so I searched for a close, affordable hotel, preferably with a microwave and refrigerator.  I reserved a suite, thinking they were the only rooms with the microwave and fridge, which I later found was wrong.  I brought food with me.  First, the fridge froze nearly everything, what managed to survive the freeze, later was ruined because the fridge went to hot, as it defrosted.  Basically, I lost all the food I brought.  When I complained to the front desk, the clerk on duty was very helpful (sorry I forget his name).  He sent up assistance and credited my bill $20 for the two night stay.  The room was more than spacious, which was great cause an emergency came up and my 1 yr old grandson had to spend the day with me!  The room was quiet, which was very important to me.  Breakfast was the basics.  I will definitely return again...maybe without the food this time.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r157139340-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>157139340</t>
+  </si>
+  <si>
+    <t>04/08/2013</t>
+  </si>
+  <si>
+    <t>Entirely acceptable</t>
+  </si>
+  <si>
+    <t>Good location, clean, and the staff was helpful. Very limited workout facilities but had the usual equipment.  Breakfast was particularly good.  Very nice lobby area. Fridge in the room was convenient for beverages.</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r154516285-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>154516285</t>
+  </si>
+  <si>
+    <t>03/14/2013</t>
+  </si>
+  <si>
+    <t>Nice Place to Stay</t>
+  </si>
+  <si>
+    <t>Nothing to complain about at this place.  It's very nice and has a friendly and helpful staff.  I will stay here again.  If you're looking for place to stay around Conroe, this is a good choice.  Do not stay at the Comfort Suites in The Woodlands!!!</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r142417208-Comfort_Suites-Spring_Texas.html</t>
   </si>
   <si>
@@ -1164,6 +1762,45 @@
     <t>Useful tip. This place is one of the MOST conveniently located hotels/motels around. Getting to and from the airport was a breeze via a "toll road" that the helpful front desk person showed me. I think his name was Jason(?). I tried to get in again this week, but they were sold out. Must be doing something right if people keep coming back(?) Anyway, staff was very helpful, hotel was very clean and smelt great, decor was pleasant and modern and breakfast was ok, but it was included and free unlike where I have to stay this week. They are making me pay for the breakfast AND wireless. Thank you Comfort Suites, I have learnt my lesson.. I will book earlier next time.Also, they are close to one of the wedding venues where my cousin will be getting married in October/November this year. I will be back ..(and BOOK EARLY). :-)More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r134289282-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>134289282</t>
+  </si>
+  <si>
+    <t>07/13/2012</t>
+  </si>
+  <si>
+    <t>Spacious and clean</t>
+  </si>
+  <si>
+    <t>Good place for work. Clean rooms with decent free internet. I little tricky to get to the first time but worth it.MoreShow less</t>
+  </si>
+  <si>
+    <t>Good place for work. Clean rooms with decent free internet. I little tricky to get to the first time but worth it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r124843424-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>124843424</t>
+  </si>
+  <si>
+    <t>02/19/2012</t>
+  </si>
+  <si>
+    <t>Good place to stay</t>
+  </si>
+  <si>
+    <t>Rooms are spacious &amp; clean. The overall facility is well taken care of. Good shower/bathroom as well. They do a decent job at breakfast, although i have to agree with other comments that it's nothing too fancy. Complementary parking, breakfast and internet are certainly pluses that pushed me to give this a 4, iso a 3. When in the area next time around i would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>Rooms are spacious &amp; clean. The overall facility is well taken care of. Good shower/bathroom as well. They do a decent job at breakfast, although i have to agree with other comments that it's nothing too fancy. Complementary parking, breakfast and internet are certainly pluses that pushed me to give this a 4, iso a 3. When in the area next time around i would stay here again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r124405208-Comfort_Suites-Spring_Texas.html</t>
   </si>
   <si>
@@ -1179,9 +1816,6 @@
     <t>Hotel boast a good location in North Houston Area on 45.The staff was freindly and helpful, the rooms spacious and quiet, modern flatscreen tvs with good cable access and speedy internet.MoreShow less</t>
   </si>
   <si>
-    <t>February 2012</t>
-  </si>
-  <si>
     <t>Hotel boast a good location in North Houston Area on 45.The staff was freindly and helpful, the rooms spacious and quiet, modern flatscreen tvs with good cable access and speedy internet.More</t>
   </si>
   <si>
@@ -1215,6 +1849,45 @@
     <t>I have stayed at this hotel when on business at our home office in Spring.  The staff has always been courteous.  The room has always been very clean and the bed comfortable.  I have stayed at other hotels in the area, but this one is best by far.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r112497271-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>112497271</t>
+  </si>
+  <si>
+    <t>06/09/2011</t>
+  </si>
+  <si>
+    <t>Def must stay!! Excellent lodging and service!</t>
+  </si>
+  <si>
+    <t>Great hotel! Stayed here to visit the nearby waterpark and botanical gardens. Modern, brand new construction with excellent amenities. Def recommend to anyone visiting the Houston area. Great location off I-45 and close to IAH airport!</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r103833406-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>103833406</t>
+  </si>
+  <si>
+    <t>04/12/2011</t>
+  </si>
+  <si>
+    <t>Would definitely stay again</t>
+  </si>
+  <si>
+    <t>Checked in for 1 night for a quiet getaway with my boyfriend and we got a great rate with my AAA discount. The staff at the front desk was cordial enough though not overly welcoming. The room was wonderful; large and spacious, the bed was incredibly comfortable.The sink in the bathroom was a bit odd as it resembled a bowl that sat on top of the counter and as I'm only 5'2, I found it slightly awkward to wash my hands, not to mention the faucet itself was so close to the edge of the sink that my hands were always touching the side. We were on the 1st floor, towards the end of the hallway and it was rather loud when guests entered or exited the building via the door leading to the outdoor pool. The door slamming certainly woke us up a few times throughout the night and during the early morning. Lastly, I'm sure the free breakfast was lovely, but it was only offered until 930 am and we weren't able to enjoy it. Overall nice stay, I would go back.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>Checked in for 1 night for a quiet getaway with my boyfriend and we got a great rate with my AAA discount. The staff at the front desk was cordial enough though not overly welcoming. The room was wonderful; large and spacious, the bed was incredibly comfortable.The sink in the bathroom was a bit odd as it resembled a bowl that sat on top of the counter and as I'm only 5'2, I found it slightly awkward to wash my hands, not to mention the faucet itself was so close to the edge of the sink that my hands were always touching the side. We were on the 1st floor, towards the end of the hallway and it was rather loud when guests entered or exited the building via the door leading to the outdoor pool. The door slamming certainly woke us up a few times throughout the night and during the early morning. Lastly, I'm sure the free breakfast was lovely, but it was only offered until 930 am and we weren't able to enjoy it. Overall nice stay, I would go back.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r102696955-Comfort_Suites-Spring_Texas.html</t>
   </si>
   <si>
@@ -1260,13 +1933,28 @@
     <t>05/26/2010</t>
   </si>
   <si>
-    <t>Great place to stay</t>
-  </si>
-  <si>
     <t>Good location just off the Interstate.  Nice new property, comfortable bed, good breakfast, no issues.  Good strong internet</t>
   </si>
   <si>
     <t>May 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d1478088-r39964920-Comfort_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>39964920</t>
+  </si>
+  <si>
+    <t>09/06/2009</t>
+  </si>
+  <si>
+    <t>Brand-new, free wi-fi, great location in Spring, TX</t>
+  </si>
+  <si>
+    <t>We travel to Spring, TX at least once a year.  This hotel opened recently and our local friends live very near it so they gave us; the number.  It was great.  A brand-new hotel, big rooms, big bathrooms, free wi-fi.  This will be our new residence from now on when we visit Spring.</t>
+  </si>
+  <si>
+    <t>August 2009</t>
   </si>
 </sst>
 </file>
@@ -1861,30 +2549,24 @@
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="O3" t="s">
         <v>53</v>
       </c>
-      <c r="P3" t="n">
-        <v>4</v>
-      </c>
+      <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
-      <c r="R3" t="n">
-        <v>4</v>
-      </c>
+      <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>5</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
@@ -1923,8 +2605,12 @@
       <c r="M4" t="n">
         <v>5</v>
       </c>
-      <c r="N4" t="s"/>
-      <c r="O4" t="s"/>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
@@ -1953,48 +2639,54 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
         <v>65</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="O5" t="s">
         <v>66</v>
       </c>
-      <c r="J5" t="s">
-        <v>67</v>
-      </c>
-      <c r="K5" t="s">
-        <v>68</v>
-      </c>
-      <c r="L5" t="s">
-        <v>69</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>70</v>
-      </c>
-      <c r="O5" t="s">
-        <v>71</v>
-      </c>
-      <c r="P5" t="s"/>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
       <c r="Q5" t="s"/>
-      <c r="R5" t="s"/>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
@@ -2010,7 +2702,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -2019,26 +2711,22 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
-      <c r="N6" t="s">
-        <v>70</v>
-      </c>
-      <c r="O6" t="s">
-        <v>53</v>
-      </c>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
@@ -2051,7 +2739,7 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
@@ -2067,7 +2755,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -2076,39 +2764,43 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O7" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
@@ -2124,7 +2816,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -2133,45 +2825,39 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O8" t="s">
-        <v>90</v>
-      </c>
-      <c r="P8" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>5</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9">
@@ -2187,7 +2873,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -2196,22 +2882,26 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
-      <c r="N9" t="s"/>
-      <c r="O9" t="s"/>
+      <c r="N9" t="s">
+        <v>97</v>
+      </c>
+      <c r="O9" t="s">
+        <v>98</v>
+      </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
@@ -2240,54 +2930,48 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L10" t="s">
+        <v>103</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
         <v>97</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
-        <v>98</v>
-      </c>
-      <c r="J10" t="s">
-        <v>99</v>
-      </c>
-      <c r="K10" t="s">
-        <v>100</v>
-      </c>
-      <c r="L10" t="s">
-        <v>101</v>
-      </c>
-      <c r="M10" t="n">
-        <v>4</v>
-      </c>
-      <c r="N10" t="s">
-        <v>102</v>
-      </c>
       <c r="O10" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
-      <c r="R10" t="n">
-        <v>5</v>
-      </c>
-      <c r="S10" t="n">
-        <v>5</v>
-      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>5</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11">
@@ -2330,31 +3014,21 @@
         <v>109</v>
       </c>
       <c r="O11" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
-      <c r="R11" t="n">
-        <v>5</v>
-      </c>
-      <c r="S11" t="n">
-        <v>5</v>
-      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>5</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s">
-        <v>110</v>
-      </c>
-      <c r="X11" t="s">
-        <v>111</v>
-      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12">
@@ -2370,58 +3044,50 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
+        <v>111</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>112</v>
+      </c>
+      <c r="J12" t="s">
         <v>113</v>
       </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="K12" t="s">
         <v>114</v>
       </c>
-      <c r="J12" t="s">
+      <c r="L12" t="s">
         <v>115</v>
       </c>
-      <c r="K12" t="s">
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
         <v>116</v>
       </c>
-      <c r="L12" t="s">
-        <v>117</v>
-      </c>
-      <c r="M12" t="n">
-        <v>5</v>
-      </c>
-      <c r="N12" t="s">
-        <v>118</v>
-      </c>
       <c r="O12" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="P12" t="s"/>
-      <c r="Q12" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
-      <c r="S12" t="n">
-        <v>5</v>
-      </c>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s">
-        <v>119</v>
-      </c>
-      <c r="X12" t="s">
-        <v>120</v>
-      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13">
@@ -2437,56 +3103,48 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
+        <v>117</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>118</v>
+      </c>
+      <c r="J13" t="s">
+        <v>119</v>
+      </c>
+      <c r="K13" t="s">
+        <v>120</v>
+      </c>
+      <c r="L13" t="s">
+        <v>121</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
         <v>122</v>
       </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" t="s">
-        <v>123</v>
-      </c>
-      <c r="J13" t="s">
-        <v>124</v>
-      </c>
-      <c r="K13" t="s">
-        <v>125</v>
-      </c>
-      <c r="L13" t="s">
-        <v>126</v>
-      </c>
-      <c r="M13" t="n">
-        <v>3</v>
-      </c>
-      <c r="N13" t="s">
-        <v>127</v>
-      </c>
       <c r="O13" t="s">
-        <v>90</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>4</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s">
-        <v>128</v>
-      </c>
-      <c r="X13" t="s">
-        <v>129</v>
-      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14">
@@ -2502,7 +3160,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2511,39 +3169,45 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="J14" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="K14" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="L14" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="M14" t="n">
-        <v>3</v>
-      </c>
-      <c r="N14" t="s"/>
-      <c r="O14" t="s"/>
-      <c r="P14" t="s"/>
-      <c r="Q14" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>128</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
       <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s">
-        <v>136</v>
-      </c>
-      <c r="X14" t="s">
-        <v>137</v>
-      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15">
@@ -2559,7 +3223,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2568,49 +3232,35 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="J15" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="K15" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="L15" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s"/>
       <c r="O15" t="s"/>
-      <c r="P15" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>5</v>
-      </c>
-      <c r="R15" t="n">
-        <v>5</v>
-      </c>
-      <c r="S15" t="n">
-        <v>5</v>
-      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>5</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s">
-        <v>144</v>
-      </c>
-      <c r="X15" t="s">
-        <v>145</v>
-      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16">
@@ -2626,7 +3276,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2635,43 +3285,45 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="J16" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="K16" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="L16" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="M16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="O16" t="s">
-        <v>90</v>
+        <v>141</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
-      <c r="R16" t="s"/>
-      <c r="S16" t="s"/>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s">
-        <v>153</v>
-      </c>
-      <c r="X16" t="s">
-        <v>154</v>
-      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17">
@@ -2687,7 +3339,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2696,47 +3348,43 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="J17" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="K17" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="L17" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="M17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="O17" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="P17" t="s"/>
-      <c r="Q17" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>5</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="X17" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="Y17" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18">
@@ -2752,7 +3400,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2761,47 +3409,43 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="J18" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="K18" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="L18" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="O18" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="P18" t="s"/>
-      <c r="Q18" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>5</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="X18" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="Y18" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19">
@@ -2817,7 +3461,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2826,49 +3470,49 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="J19" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="K19" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="L19" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="O19" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="P19" t="s"/>
-      <c r="Q19" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q19" t="s"/>
       <c r="R19" t="n">
-        <v>4</v>
-      </c>
-      <c r="S19" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="X19" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="Y19" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20">
@@ -2884,7 +3528,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2893,32 +3537,34 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="J20" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="K20" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="L20" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="O20" t="s">
-        <v>90</v>
-      </c>
-      <c r="P20" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q20" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
       <c r="R20" t="s"/>
-      <c r="S20" t="s"/>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
         <v>5</v>
@@ -2927,13 +3573,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="X20" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="Y20" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21">
@@ -2949,7 +3595,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2958,43 +3604,47 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="J21" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="K21" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="L21" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="O21" t="s">
         <v>53</v>
       </c>
-      <c r="P21" t="s"/>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
       <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="X21" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="Y21" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22">
@@ -3010,7 +3660,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -3019,35 +3669,37 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="J22" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="K22" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="L22" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="O22" t="s">
-        <v>90</v>
-      </c>
-      <c r="P22" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1</v>
+      </c>
       <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
       <c r="S22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -3055,7 +3707,7 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23">
@@ -3071,7 +3723,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -3080,25 +3732,25 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="J23" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="K23" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="L23" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>210</v>
+        <v>173</v>
       </c>
       <c r="O23" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3109,10 +3761,14 @@
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
+      <c r="W23" t="s">
+        <v>196</v>
+      </c>
+      <c r="X23" t="s">
+        <v>197</v>
+      </c>
       <c r="Y23" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24">
@@ -3128,7 +3784,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -3137,26 +3793,22 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="J24" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="K24" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="L24" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="s">
-        <v>210</v>
-      </c>
-      <c r="O24" t="s">
-        <v>90</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
       <c r="R24" t="s"/>
@@ -3166,10 +3818,14 @@
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
+      <c r="W24" t="s">
+        <v>196</v>
+      </c>
+      <c r="X24" t="s">
+        <v>197</v>
+      </c>
       <c r="Y24" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25">
@@ -3185,7 +3841,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3194,35 +3850,49 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="J25" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="K25" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="L25" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s"/>
       <c r="O25" t="s"/>
-      <c r="P25" t="s"/>
-      <c r="Q25" t="s"/>
-      <c r="R25" t="s"/>
-      <c r="S25" t="s"/>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
       <c r="T25" t="s"/>
-      <c r="U25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
+      <c r="W25" t="s">
+        <v>210</v>
+      </c>
+      <c r="X25" t="s">
+        <v>211</v>
+      </c>
       <c r="Y25" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26">
@@ -3238,7 +3908,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3247,47 +3917,43 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="J26" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="K26" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="L26" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="M26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="O26" t="s">
         <v>53</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
-      <c r="R26" t="n">
-        <v>4</v>
-      </c>
+      <c r="R26" t="s"/>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>4</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="X26" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="Y26" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27">
@@ -3303,7 +3969,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3312,49 +3978,47 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="J27" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="K27" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="L27" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="M27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O27" t="s">
         <v>53</v>
       </c>
       <c r="P27" t="s"/>
-      <c r="Q27" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q27" t="s"/>
       <c r="R27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="X27" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="Y27" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="28">
@@ -3370,7 +4034,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3379,43 +4043,43 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="J28" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="K28" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="L28" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="M28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="O28" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
-      <c r="R28" t="n">
-        <v>5</v>
-      </c>
+      <c r="R28" t="s"/>
       <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>3</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s"/>
-      <c r="X28" t="s"/>
+      <c r="W28" t="s">
+        <v>237</v>
+      </c>
+      <c r="X28" t="s">
+        <v>238</v>
+      </c>
       <c r="Y28" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="29">
@@ -3431,58 +4095,56 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
+        <v>240</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>241</v>
+      </c>
+      <c r="J29" t="s">
+        <v>242</v>
+      </c>
+      <c r="K29" t="s">
+        <v>243</v>
+      </c>
+      <c r="L29" t="s">
         <v>244</v>
-      </c>
-      <c r="G29" t="s">
-        <v>46</v>
-      </c>
-      <c r="H29" t="s">
-        <v>47</v>
-      </c>
-      <c r="I29" t="s">
-        <v>245</v>
-      </c>
-      <c r="J29" t="s">
-        <v>246</v>
-      </c>
-      <c r="K29" t="s">
-        <v>247</v>
-      </c>
-      <c r="L29" t="s">
-        <v>248</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="O29" t="s">
-        <v>90</v>
-      </c>
-      <c r="P29" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q29" t="s"/>
-      <c r="R29" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="s"/>
       <c r="S29" t="s"/>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="X29" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="Y29" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="30">
@@ -3498,48 +4160,56 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
+        <v>248</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>249</v>
+      </c>
+      <c r="J30" t="s">
+        <v>250</v>
+      </c>
+      <c r="K30" t="s">
+        <v>251</v>
+      </c>
+      <c r="L30" t="s">
+        <v>252</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
         <v>253</v>
       </c>
-      <c r="G30" t="s">
-        <v>46</v>
-      </c>
-      <c r="H30" t="s">
-        <v>47</v>
-      </c>
-      <c r="I30" t="s">
-        <v>254</v>
-      </c>
-      <c r="J30" t="s">
-        <v>255</v>
-      </c>
-      <c r="K30" t="s">
-        <v>256</v>
-      </c>
-      <c r="L30" t="s">
-        <v>257</v>
-      </c>
-      <c r="M30" t="n">
-        <v>4</v>
-      </c>
-      <c r="N30" t="s">
-        <v>249</v>
-      </c>
       <c r="O30" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="P30" t="s"/>
-      <c r="Q30" t="s"/>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
       <c r="R30" t="s"/>
       <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s"/>
-      <c r="X30" t="s"/>
+      <c r="W30" t="s">
+        <v>254</v>
+      </c>
+      <c r="X30" t="s">
+        <v>255</v>
+      </c>
       <c r="Y30" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="31">
@@ -3555,48 +4225,58 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
+        <v>257</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
         <v>258</v>
       </c>
-      <c r="G31" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" t="s">
-        <v>47</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>259</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>260</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>261</v>
       </c>
-      <c r="L31" t="s">
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
         <v>262</v>
       </c>
-      <c r="M31" t="n">
-        <v>5</v>
-      </c>
-      <c r="N31" t="s"/>
-      <c r="O31" t="s"/>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
       <c r="P31" t="s"/>
-      <c r="Q31" t="s"/>
-      <c r="R31" t="s"/>
+      <c r="Q31" t="n">
+        <v>3</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
       <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="X31" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="Y31" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="32">
@@ -3612,7 +4292,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3621,43 +4301,47 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="J32" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="K32" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="L32" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>269</v>
+        <v>164</v>
       </c>
       <c r="O32" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
-      <c r="R32" t="n">
-        <v>3</v>
-      </c>
-      <c r="S32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s"/>
-      <c r="X32" t="s"/>
+      <c r="W32" t="s">
+        <v>271</v>
+      </c>
+      <c r="X32" t="s">
+        <v>272</v>
+      </c>
       <c r="Y32" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="33">
@@ -3673,7 +4357,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3682,39 +4366,49 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="J33" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="K33" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="L33" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="M33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="O33" t="s">
-        <v>90</v>
-      </c>
-      <c r="P33" t="s"/>
+        <v>66</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3</v>
+      </c>
       <c r="Q33" t="s"/>
       <c r="R33" t="s"/>
-      <c r="S33" t="s"/>
+      <c r="S33" t="n">
+        <v>4</v>
+      </c>
       <c r="T33" t="s"/>
-      <c r="U33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
+      <c r="W33" t="s">
+        <v>280</v>
+      </c>
+      <c r="X33" t="s">
+        <v>281</v>
+      </c>
       <c r="Y33" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="34">
@@ -3730,7 +4424,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3739,43 +4433,47 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="J34" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="K34" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="L34" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="M34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="O34" t="s">
         <v>53</v>
       </c>
-      <c r="P34" t="s"/>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
       <c r="Q34" t="s"/>
       <c r="R34" t="s"/>
-      <c r="S34" t="n">
-        <v>3</v>
-      </c>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s"/>
-      <c r="X34" t="s"/>
+      <c r="W34" t="s">
+        <v>288</v>
+      </c>
+      <c r="X34" t="s">
+        <v>289</v>
+      </c>
       <c r="Y34" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="35">
@@ -3791,7 +4489,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -3800,45 +4498,43 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="J35" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="K35" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="L35" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="M35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="O35" t="s">
-        <v>71</v>
-      </c>
-      <c r="P35" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>5</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
       <c r="R35" t="s"/>
       <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="n">
-        <v>5</v>
-      </c>
+      <c r="U35" t="s"/>
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s"/>
-      <c r="X35" t="s"/>
+      <c r="W35" t="s">
+        <v>297</v>
+      </c>
+      <c r="X35" t="s">
+        <v>298</v>
+      </c>
       <c r="Y35" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
     </row>
     <row r="36">
@@ -3854,7 +4550,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -3863,35 +4559,29 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="J36" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="K36" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="L36" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="O36" t="s">
-        <v>90</v>
-      </c>
-      <c r="P36" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>5</v>
-      </c>
-      <c r="R36" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
       <c r="S36" t="n">
         <v>5</v>
       </c>
@@ -3905,7 +4595,7 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
     </row>
     <row r="37">
@@ -3921,7 +4611,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -3930,53 +4620,43 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="J37" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="K37" t="s">
+        <v>308</v>
+      </c>
+      <c r="L37" t="s">
+        <v>309</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>310</v>
+      </c>
+      <c r="O37" t="s">
+        <v>110</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
         <v>297</v>
       </c>
-      <c r="L37" t="s">
+      <c r="X37" t="s">
         <v>298</v>
       </c>
-      <c r="M37" t="n">
-        <v>4</v>
-      </c>
-      <c r="N37" t="s">
-        <v>299</v>
-      </c>
-      <c r="O37" t="s">
-        <v>53</v>
-      </c>
-      <c r="P37" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>5</v>
-      </c>
-      <c r="R37" t="n">
-        <v>5</v>
-      </c>
-      <c r="S37" t="n">
-        <v>5</v>
-      </c>
-      <c r="T37" t="s"/>
-      <c r="U37" t="n">
-        <v>5</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="s">
-        <v>300</v>
-      </c>
-      <c r="X37" t="s">
-        <v>301</v>
-      </c>
       <c r="Y37" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
     </row>
     <row r="38">
@@ -3992,7 +4672,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -4001,34 +4681,34 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="J38" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K38" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="L38" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
-      <c r="N38" t="s"/>
-      <c r="O38" t="s"/>
+      <c r="N38" t="s">
+        <v>310</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
       <c r="P38" t="n">
         <v>5</v>
       </c>
-      <c r="Q38" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q38" t="s"/>
       <c r="R38" t="n">
         <v>5</v>
       </c>
-      <c r="S38" t="n">
-        <v>4</v>
-      </c>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
         <v>5</v>
@@ -4037,13 +4717,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="X38" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="Y38" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
     </row>
     <row r="39">
@@ -4059,7 +4739,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4068,49 +4748,39 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="J39" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="K39" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="L39" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="O39" t="s">
-        <v>90</v>
-      </c>
-      <c r="P39" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>5</v>
-      </c>
-      <c r="R39" t="n">
-        <v>5</v>
-      </c>
-      <c r="S39" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
-      <c r="U39" t="n">
-        <v>5</v>
-      </c>
+      <c r="U39" t="s"/>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
     </row>
     <row r="40">
@@ -4126,7 +4796,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4135,53 +4805,39 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="J40" t="s">
         <v>319</v>
       </c>
       <c r="K40" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="L40" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="M40" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="O40" t="s">
         <v>53</v>
       </c>
-      <c r="P40" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>5</v>
-      </c>
-      <c r="R40" t="n">
-        <v>5</v>
-      </c>
-      <c r="S40" t="n">
-        <v>4</v>
-      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
-      <c r="U40" t="n">
-        <v>5</v>
-      </c>
+      <c r="U40" t="s"/>
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s">
-        <v>322</v>
-      </c>
-      <c r="X40" t="s">
-        <v>323</v>
-      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="41">
@@ -4197,7 +4853,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4206,53 +4862,35 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="J41" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="K41" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="L41" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
-      <c r="N41" t="s">
-        <v>330</v>
-      </c>
-      <c r="O41" t="s">
-        <v>71</v>
-      </c>
-      <c r="P41" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>5</v>
-      </c>
-      <c r="R41" t="n">
-        <v>5</v>
-      </c>
-      <c r="S41" t="n">
-        <v>5</v>
-      </c>
+      <c r="N41" t="s"/>
+      <c r="O41" t="s"/>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
       <c r="T41" t="s"/>
-      <c r="U41" t="n">
-        <v>5</v>
-      </c>
+      <c r="U41" t="s"/>
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s">
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
         <v>331</v>
-      </c>
-      <c r="X41" t="s">
-        <v>332</v>
-      </c>
-      <c r="Y41" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="42">
@@ -4268,58 +4906,48 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
+        <v>332</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>333</v>
+      </c>
+      <c r="J42" t="s">
         <v>334</v>
       </c>
-      <c r="G42" t="s">
-        <v>46</v>
-      </c>
-      <c r="H42" t="s">
-        <v>47</v>
-      </c>
-      <c r="I42" t="s">
+      <c r="K42" t="s">
         <v>335</v>
       </c>
-      <c r="J42" t="s">
+      <c r="L42" t="s">
         <v>336</v>
       </c>
-      <c r="K42" t="s">
-        <v>337</v>
-      </c>
-      <c r="L42" t="s">
-        <v>338</v>
-      </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>339</v>
+        <v>310</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
-      </c>
-      <c r="P42" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>5</v>
-      </c>
-      <c r="R42" t="n">
-        <v>5</v>
-      </c>
-      <c r="S42" t="n">
-        <v>5</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
-      <c r="U42" t="n">
-        <v>5</v>
-      </c>
+      <c r="U42" t="s"/>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="43">
@@ -4335,47 +4963,43 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
+        <v>337</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>338</v>
+      </c>
+      <c r="J43" t="s">
+        <v>339</v>
+      </c>
+      <c r="K43" t="s">
+        <v>340</v>
+      </c>
+      <c r="L43" t="s">
         <v>341</v>
       </c>
-      <c r="G43" t="s">
-        <v>46</v>
-      </c>
-      <c r="H43" t="s">
-        <v>47</v>
-      </c>
-      <c r="I43" t="s">
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
         <v>342</v>
       </c>
-      <c r="J43" t="s">
-        <v>343</v>
-      </c>
-      <c r="K43" t="s">
-        <v>344</v>
-      </c>
-      <c r="L43" t="s">
-        <v>345</v>
-      </c>
-      <c r="M43" t="n">
-        <v>4</v>
-      </c>
-      <c r="N43" t="s">
-        <v>346</v>
-      </c>
       <c r="O43" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
       </c>
-      <c r="Q43" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q43" t="s"/>
       <c r="R43" t="n">
         <v>5</v>
       </c>
-      <c r="S43" t="n">
-        <v>5</v>
-      </c>
+      <c r="S43" t="s"/>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
         <v>5</v>
@@ -4383,14 +5007,10 @@
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s">
-        <v>331</v>
-      </c>
-      <c r="X43" t="s">
-        <v>332</v>
-      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="44">
@@ -4406,62 +5026,56 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
+        <v>343</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>344</v>
+      </c>
+      <c r="J44" t="s">
+        <v>345</v>
+      </c>
+      <c r="K44" t="s">
+        <v>346</v>
+      </c>
+      <c r="L44" t="s">
+        <v>347</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
         <v>348</v>
       </c>
-      <c r="G44" t="s">
-        <v>46</v>
-      </c>
-      <c r="H44" t="s">
-        <v>47</v>
-      </c>
-      <c r="I44" t="s">
-        <v>349</v>
-      </c>
-      <c r="J44" t="s">
-        <v>350</v>
-      </c>
-      <c r="K44" t="s">
-        <v>351</v>
-      </c>
-      <c r="L44" t="s">
-        <v>352</v>
-      </c>
-      <c r="M44" t="n">
-        <v>5</v>
-      </c>
-      <c r="N44" t="s">
-        <v>353</v>
-      </c>
       <c r="O44" t="s">
-        <v>90</v>
-      </c>
-      <c r="P44" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>5</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
       <c r="R44" t="n">
-        <v>5</v>
-      </c>
-      <c r="S44" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="X44" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="Y44" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="45">
@@ -4477,7 +5091,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4486,34 +5100,34 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="J45" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="K45" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="L45" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="s"/>
-      <c r="O45" t="s"/>
-      <c r="P45" t="n">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N45" t="s">
+        <v>348</v>
+      </c>
+      <c r="O45" t="s">
+        <v>66</v>
+      </c>
+      <c r="P45" t="s"/>
       <c r="Q45" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R45" t="n">
-        <v>2</v>
-      </c>
-      <c r="S45" t="n">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
         <v>1</v>
@@ -4522,13 +5136,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="X45" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="Y45" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="46">
@@ -4544,7 +5158,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -4553,53 +5167,43 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="J46" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="K46" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="L46" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="M46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>370</v>
+        <v>348</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
-      </c>
-      <c r="P46" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>5</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
       <c r="R46" t="n">
         <v>5</v>
       </c>
-      <c r="S46" t="n">
-        <v>5</v>
-      </c>
+      <c r="S46" t="s"/>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s">
-        <v>362</v>
-      </c>
-      <c r="X46" t="s">
-        <v>363</v>
-      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="47">
@@ -4615,7 +5219,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -4624,53 +5228,49 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="J47" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="K47" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="L47" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="M47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N47" t="s">
-        <v>377</v>
+        <v>279</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
-      </c>
-      <c r="P47" t="n">
-        <v>5</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="P47" t="s"/>
       <c r="Q47" t="n">
-        <v>5</v>
-      </c>
-      <c r="R47" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R47" t="s"/>
       <c r="S47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="X47" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="Y47" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="48">
@@ -4686,54 +5286,58 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
+        <v>374</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>375</v>
+      </c>
+      <c r="J48" t="s">
+        <v>376</v>
+      </c>
+      <c r="K48" t="s">
+        <v>377</v>
+      </c>
+      <c r="L48" t="s">
+        <v>378</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s">
         <v>379</v>
       </c>
-      <c r="G48" t="s">
-        <v>46</v>
-      </c>
-      <c r="H48" t="s">
-        <v>47</v>
-      </c>
-      <c r="I48" t="s">
-        <v>380</v>
-      </c>
-      <c r="J48" t="s">
-        <v>381</v>
-      </c>
-      <c r="K48" t="s">
-        <v>382</v>
-      </c>
-      <c r="L48" t="s">
-        <v>383</v>
-      </c>
-      <c r="M48" t="n">
-        <v>5</v>
-      </c>
-      <c r="N48" t="s"/>
-      <c r="O48" t="s"/>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
       <c r="P48" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>5</v>
-      </c>
-      <c r="R48" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
       <c r="S48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="W48" t="s"/>
-      <c r="X48" t="s"/>
+      <c r="W48" t="s">
+        <v>380</v>
+      </c>
+      <c r="X48" t="s">
+        <v>381</v>
+      </c>
       <c r="Y48" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="49">
@@ -4749,54 +5353,58 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
+        <v>383</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
         <v>384</v>
       </c>
-      <c r="G49" t="s">
-        <v>46</v>
-      </c>
-      <c r="H49" t="s">
-        <v>47</v>
-      </c>
-      <c r="I49" t="s">
+      <c r="J49" t="s">
         <v>385</v>
       </c>
-      <c r="J49" t="s">
+      <c r="K49" t="s">
         <v>386</v>
       </c>
-      <c r="K49" t="s">
+      <c r="L49" t="s">
         <v>387</v>
       </c>
-      <c r="L49" t="s">
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
         <v>388</v>
       </c>
-      <c r="M49" t="n">
-        <v>5</v>
-      </c>
-      <c r="N49" t="s"/>
-      <c r="O49" t="s"/>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
       <c r="P49" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q49" t="s"/>
       <c r="R49" t="n">
-        <v>5</v>
-      </c>
-      <c r="S49" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S49" t="s"/>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
       </c>
-      <c r="W49" t="s"/>
-      <c r="X49" t="s"/>
+      <c r="W49" t="s">
+        <v>380</v>
+      </c>
+      <c r="X49" t="s">
+        <v>381</v>
+      </c>
       <c r="Y49" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="50">
@@ -4812,7 +5420,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -4821,49 +5429,39 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="J50" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="K50" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L50" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="O50" t="s">
-        <v>71</v>
-      </c>
-      <c r="P50" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>4</v>
-      </c>
-      <c r="R50" t="n">
-        <v>5</v>
-      </c>
-      <c r="S50" t="n">
-        <v>4</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
       <c r="T50" t="s"/>
-      <c r="U50" t="n">
-        <v>4</v>
-      </c>
+      <c r="U50" t="s"/>
       <c r="V50" t="n">
         <v>0</v>
       </c>
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="51">
@@ -4902,35 +5500,25 @@
       <c r="M51" t="n">
         <v>5</v>
       </c>
-      <c r="N51" t="s">
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>380</v>
+      </c>
+      <c r="X51" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y51" t="s">
         <v>400</v>
-      </c>
-      <c r="O51" t="s">
-        <v>71</v>
-      </c>
-      <c r="P51" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>5</v>
-      </c>
-      <c r="R51" t="n">
-        <v>5</v>
-      </c>
-      <c r="S51" t="n">
-        <v>5</v>
-      </c>
-      <c r="T51" t="s"/>
-      <c r="U51" t="n">
-        <v>5</v>
-      </c>
-      <c r="V51" t="n">
-        <v>0</v>
-      </c>
-      <c r="W51" t="s"/>
-      <c r="X51" t="s"/>
-      <c r="Y51" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="52">
@@ -4973,7 +5561,7 @@
         <v>406</v>
       </c>
       <c r="O52" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -4981,12 +5569,8 @@
       <c r="Q52" t="n">
         <v>5</v>
       </c>
-      <c r="R52" t="n">
-        <v>5</v>
-      </c>
-      <c r="S52" t="n">
-        <v>5</v>
-      </c>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
         <v>5</v>
@@ -5000,6 +5584,2293 @@
         <v>405</v>
       </c>
     </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>407</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>408</v>
+      </c>
+      <c r="J53" t="s">
+        <v>409</v>
+      </c>
+      <c r="K53" t="s">
+        <v>410</v>
+      </c>
+      <c r="L53" t="s">
+        <v>411</v>
+      </c>
+      <c r="M53" t="n">
+        <v>2</v>
+      </c>
+      <c r="N53" t="s">
+        <v>406</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="n">
+        <v>2</v>
+      </c>
+      <c r="R53" t="s"/>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>1</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>413</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>414</v>
+      </c>
+      <c r="J54" t="s">
+        <v>415</v>
+      </c>
+      <c r="K54" t="s">
+        <v>416</v>
+      </c>
+      <c r="L54" t="s">
+        <v>417</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>418</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>420</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>421</v>
+      </c>
+      <c r="J55" t="s">
+        <v>422</v>
+      </c>
+      <c r="K55" t="s">
+        <v>423</v>
+      </c>
+      <c r="L55" t="s">
+        <v>424</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>418</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>426</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>427</v>
+      </c>
+      <c r="J56" t="s">
+        <v>428</v>
+      </c>
+      <c r="K56" t="s">
+        <v>429</v>
+      </c>
+      <c r="L56" t="s">
+        <v>430</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>431</v>
+      </c>
+      <c r="O56" t="s">
+        <v>66</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="n">
+        <v>3</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>3</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>432</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>433</v>
+      </c>
+      <c r="J57" t="s">
+        <v>434</v>
+      </c>
+      <c r="K57" t="s">
+        <v>435</v>
+      </c>
+      <c r="L57" t="s">
+        <v>436</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>431</v>
+      </c>
+      <c r="O57" t="s">
+        <v>66</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>437</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>438</v>
+      </c>
+      <c r="J58" t="s">
+        <v>439</v>
+      </c>
+      <c r="K58" t="s">
+        <v>440</v>
+      </c>
+      <c r="L58" t="s">
+        <v>441</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>431</v>
+      </c>
+      <c r="O58" t="s">
+        <v>110</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>442</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>443</v>
+      </c>
+      <c r="J59" t="s">
+        <v>444</v>
+      </c>
+      <c r="K59" t="s">
+        <v>445</v>
+      </c>
+      <c r="L59" t="s">
+        <v>446</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>447</v>
+      </c>
+      <c r="O59" t="s">
+        <v>98</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>448</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>449</v>
+      </c>
+      <c r="J60" t="s">
+        <v>450</v>
+      </c>
+      <c r="K60" t="s">
+        <v>451</v>
+      </c>
+      <c r="L60" t="s">
+        <v>452</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>447</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>453</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>454</v>
+      </c>
+      <c r="J61" t="s">
+        <v>455</v>
+      </c>
+      <c r="K61" t="s">
+        <v>456</v>
+      </c>
+      <c r="L61" t="s">
+        <v>457</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>458</v>
+      </c>
+      <c r="O61" t="s">
+        <v>66</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>459</v>
+      </c>
+      <c r="X61" t="s">
+        <v>460</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>462</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>463</v>
+      </c>
+      <c r="J62" t="s">
+        <v>464</v>
+      </c>
+      <c r="K62" t="s">
+        <v>465</v>
+      </c>
+      <c r="L62" t="s">
+        <v>466</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>467</v>
+      </c>
+      <c r="O62" t="s">
+        <v>98</v>
+      </c>
+      <c r="P62" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>1</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>469</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>470</v>
+      </c>
+      <c r="J63" t="s">
+        <v>471</v>
+      </c>
+      <c r="K63" t="s">
+        <v>472</v>
+      </c>
+      <c r="L63" t="s">
+        <v>473</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>474</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>475</v>
+      </c>
+      <c r="J64" t="s">
+        <v>476</v>
+      </c>
+      <c r="K64" t="s">
+        <v>477</v>
+      </c>
+      <c r="L64" t="s">
+        <v>478</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s"/>
+      <c r="O64" t="s"/>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>479</v>
+      </c>
+      <c r="X64" t="s">
+        <v>480</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>482</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>483</v>
+      </c>
+      <c r="J65" t="s">
+        <v>484</v>
+      </c>
+      <c r="K65" t="s">
+        <v>485</v>
+      </c>
+      <c r="L65" t="s">
+        <v>486</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>487</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>488</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>489</v>
+      </c>
+      <c r="J66" t="s">
+        <v>490</v>
+      </c>
+      <c r="K66" t="s">
+        <v>491</v>
+      </c>
+      <c r="L66" t="s">
+        <v>492</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>487</v>
+      </c>
+      <c r="O66" t="s">
+        <v>66</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>493</v>
+      </c>
+      <c r="X66" t="s">
+        <v>494</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>496</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>497</v>
+      </c>
+      <c r="J67" t="s">
+        <v>498</v>
+      </c>
+      <c r="K67" t="s">
+        <v>499</v>
+      </c>
+      <c r="L67" t="s">
+        <v>500</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s"/>
+      <c r="O67" t="s"/>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>501</v>
+      </c>
+      <c r="X67" t="s">
+        <v>502</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>504</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>505</v>
+      </c>
+      <c r="J68" t="s">
+        <v>506</v>
+      </c>
+      <c r="K68" t="s">
+        <v>507</v>
+      </c>
+      <c r="L68" t="s">
+        <v>508</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>509</v>
+      </c>
+      <c r="O68" t="s">
+        <v>110</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>510</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>511</v>
+      </c>
+      <c r="J69" t="s">
+        <v>512</v>
+      </c>
+      <c r="K69" t="s">
+        <v>513</v>
+      </c>
+      <c r="L69" t="s">
+        <v>514</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>515</v>
+      </c>
+      <c r="O69" t="s">
+        <v>98</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>516</v>
+      </c>
+      <c r="X69" t="s">
+        <v>517</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>519</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>520</v>
+      </c>
+      <c r="J70" t="s">
+        <v>521</v>
+      </c>
+      <c r="K70" t="s">
+        <v>522</v>
+      </c>
+      <c r="L70" t="s">
+        <v>523</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>524</v>
+      </c>
+      <c r="O70" t="s">
+        <v>66</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>526</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>527</v>
+      </c>
+      <c r="J71" t="s">
+        <v>528</v>
+      </c>
+      <c r="K71" t="s">
+        <v>529</v>
+      </c>
+      <c r="L71" t="s">
+        <v>530</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>531</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>516</v>
+      </c>
+      <c r="X71" t="s">
+        <v>517</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>533</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>534</v>
+      </c>
+      <c r="J72" t="s">
+        <v>535</v>
+      </c>
+      <c r="K72" t="s">
+        <v>536</v>
+      </c>
+      <c r="L72" t="s">
+        <v>537</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>538</v>
+      </c>
+      <c r="O72" t="s">
+        <v>141</v>
+      </c>
+      <c r="P72" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>539</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>540</v>
+      </c>
+      <c r="J73" t="s">
+        <v>541</v>
+      </c>
+      <c r="K73" t="s">
+        <v>542</v>
+      </c>
+      <c r="L73" t="s">
+        <v>543</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s"/>
+      <c r="O73" t="s"/>
+      <c r="P73" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>544</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>545</v>
+      </c>
+      <c r="J74" t="s">
+        <v>546</v>
+      </c>
+      <c r="K74" t="s">
+        <v>547</v>
+      </c>
+      <c r="L74" t="s">
+        <v>548</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>549</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>550</v>
+      </c>
+      <c r="X74" t="s">
+        <v>551</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>553</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>554</v>
+      </c>
+      <c r="J75" t="s">
+        <v>555</v>
+      </c>
+      <c r="K75" t="s">
+        <v>556</v>
+      </c>
+      <c r="L75" t="s">
+        <v>557</v>
+      </c>
+      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+      <c r="N75" t="s"/>
+      <c r="O75" t="s"/>
+      <c r="P75" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>1</v>
+      </c>
+      <c r="R75" t="n">
+        <v>2</v>
+      </c>
+      <c r="S75" t="n">
+        <v>1</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>1</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>558</v>
+      </c>
+      <c r="X75" t="s">
+        <v>559</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>561</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>562</v>
+      </c>
+      <c r="J76" t="s">
+        <v>563</v>
+      </c>
+      <c r="K76" t="s">
+        <v>564</v>
+      </c>
+      <c r="L76" t="s">
+        <v>565</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>566</v>
+      </c>
+      <c r="O76" t="s">
+        <v>66</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>558</v>
+      </c>
+      <c r="X76" t="s">
+        <v>559</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>568</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>569</v>
+      </c>
+      <c r="J77" t="s">
+        <v>570</v>
+      </c>
+      <c r="K77" t="s">
+        <v>571</v>
+      </c>
+      <c r="L77" t="s">
+        <v>572</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s"/>
+      <c r="O77" t="s"/>
+      <c r="P77" t="s"/>
+      <c r="Q77" t="s"/>
+      <c r="R77" t="s"/>
+      <c r="S77" t="s"/>
+      <c r="T77" t="s"/>
+      <c r="U77" t="s"/>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>558</v>
+      </c>
+      <c r="X77" t="s">
+        <v>559</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>574</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>575</v>
+      </c>
+      <c r="J78" t="s">
+        <v>576</v>
+      </c>
+      <c r="K78" t="s">
+        <v>577</v>
+      </c>
+      <c r="L78" t="s">
+        <v>578</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>579</v>
+      </c>
+      <c r="O78" t="s">
+        <v>53</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>3</v>
+      </c>
+      <c r="R78" t="n">
+        <v>3</v>
+      </c>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>3</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>558</v>
+      </c>
+      <c r="X78" t="s">
+        <v>559</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>581</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>582</v>
+      </c>
+      <c r="J79" t="s">
+        <v>583</v>
+      </c>
+      <c r="K79" t="s">
+        <v>584</v>
+      </c>
+      <c r="L79" t="s">
+        <v>585</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>579</v>
+      </c>
+      <c r="O79" t="s">
+        <v>66</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>558</v>
+      </c>
+      <c r="X79" t="s">
+        <v>559</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>587</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>588</v>
+      </c>
+      <c r="J80" t="s">
+        <v>589</v>
+      </c>
+      <c r="K80" t="s">
+        <v>590</v>
+      </c>
+      <c r="L80" t="s">
+        <v>591</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s"/>
+      <c r="O80" t="s"/>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>3</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>592</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>593</v>
+      </c>
+      <c r="J81" t="s">
+        <v>594</v>
+      </c>
+      <c r="K81" t="s">
+        <v>595</v>
+      </c>
+      <c r="L81" t="s">
+        <v>596</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s"/>
+      <c r="O81" t="s"/>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>597</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>598</v>
+      </c>
+      <c r="J82" t="s">
+        <v>599</v>
+      </c>
+      <c r="K82" t="s">
+        <v>600</v>
+      </c>
+      <c r="L82" t="s">
+        <v>601</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>602</v>
+      </c>
+      <c r="O82" t="s">
+        <v>53</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="s"/>
+      <c r="R82" t="s"/>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>603</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>604</v>
+      </c>
+      <c r="J83" t="s">
+        <v>605</v>
+      </c>
+      <c r="K83" t="s">
+        <v>606</v>
+      </c>
+      <c r="L83" t="s">
+        <v>607</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>608</v>
+      </c>
+      <c r="O83" t="s">
+        <v>98</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>4</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>610</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>611</v>
+      </c>
+      <c r="J84" t="s">
+        <v>612</v>
+      </c>
+      <c r="K84" t="s">
+        <v>613</v>
+      </c>
+      <c r="L84" t="s">
+        <v>614</v>
+      </c>
+      <c r="M84" t="n">
+        <v>3</v>
+      </c>
+      <c r="N84" t="s">
+        <v>615</v>
+      </c>
+      <c r="O84" t="s">
+        <v>98</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>4</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>4</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>4</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>616</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>617</v>
+      </c>
+      <c r="J85" t="s">
+        <v>618</v>
+      </c>
+      <c r="K85" t="s">
+        <v>619</v>
+      </c>
+      <c r="L85" t="s">
+        <v>620</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>621</v>
+      </c>
+      <c r="O85" t="s">
+        <v>98</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>622</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>623</v>
+      </c>
+      <c r="J86" t="s">
+        <v>624</v>
+      </c>
+      <c r="K86" t="s">
+        <v>404</v>
+      </c>
+      <c r="L86" t="s">
+        <v>625</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>626</v>
+      </c>
+      <c r="O86" t="s">
+        <v>98</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>59793</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>627</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>628</v>
+      </c>
+      <c r="J87" t="s">
+        <v>629</v>
+      </c>
+      <c r="K87" t="s">
+        <v>630</v>
+      </c>
+      <c r="L87" t="s">
+        <v>631</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>632</v>
+      </c>
+      <c r="O87" t="s">
+        <v>98</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>4</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>631</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>